--- a/結果/平板曲げ剛性/L_60/L_60_result.xlsx
+++ b/結果/平板曲げ剛性/L_60/L_60_result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E305"/>
+  <dimension ref="A1:K305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>L_60_1pass</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>L_60_3pass</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -454,6 +459,31 @@
           <t>固有角変形(θy*)</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>固有縦収縮(δx*)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>固有横収縮(δy*)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>固有角変形(θx*)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>固有角変形(θy*)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -471,6 +501,21 @@
       <c r="E3" t="n">
         <v>-0.002240956937666264</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.0003499645581050322</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.0008006360500352438</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.001810798994931823</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.005603605689108302</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -488,6 +533,21 @@
       <c r="E4" t="n">
         <v>-0.002756759544089285</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.0005575413040209916</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.000953053905423771</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.00307293072638878</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.005738312095079946</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -505,6 +565,21 @@
       <c r="E5" t="n">
         <v>-0.003416676139829374</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.0008325613553825262</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.001184296389682786</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.003963164368470101</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.006618949717137486</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -522,6 +597,21 @@
       <c r="E6" t="n">
         <v>-0.003743012013939323</v>
       </c>
+      <c r="G6" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.001012724885833891</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.00132551516005289</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.004348185570945781</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.007160917545427782</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -539,6 +629,21 @@
       <c r="E7" t="n">
         <v>-0.004025563360372145</v>
       </c>
+      <c r="G7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.0009796368445436838</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.001443351214237853</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.003669602753440755</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.007726968561432154</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -556,6 +661,21 @@
       <c r="E8" t="n">
         <v>-0.004199933214769309</v>
       </c>
+      <c r="G8" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.0009657232681984224</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.001517126041690925</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.003383542050926032</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.008049697364159412</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -573,6 +693,21 @@
       <c r="E9" t="n">
         <v>-0.004383859408243982</v>
       </c>
+      <c r="G9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.0009313117124801098</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.001599611240900298</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.00297325482086236</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.008464611059425284</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -590,6 +725,21 @@
       <c r="E10" t="n">
         <v>-0.004482920598667292</v>
       </c>
+      <c r="G10" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.0009661410138777083</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.001651605781897244</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.003001176753792434</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.008696126297657066</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -607,6 +757,21 @@
       <c r="E11" t="n">
         <v>-0.004617739792501146</v>
       </c>
+      <c r="G11" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.0009622798902747033</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.001718706876296899</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.002732901105647702</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.009049164909193202</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -624,6 +789,21 @@
       <c r="E12" t="n">
         <v>-0.004680470647653705</v>
       </c>
+      <c r="G12" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.001002886568961634</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.001758690252129197</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.002806155049178309</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.00922416411723026</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -641,6 +821,21 @@
       <c r="E13" t="n">
         <v>-0.004784547249948613</v>
       </c>
+      <c r="G13" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.0009980222016897061</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.001814024161854264</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.002561523889608594</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.009526612224981759</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -658,6 +853,21 @@
       <c r="E14" t="n">
         <v>-0.004822633881341927</v>
       </c>
+      <c r="G14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.001033727739715315</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.001844192228192643</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0.002633663414641985</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.009660691076483032</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -675,6 +885,21 @@
       <c r="E15" t="n">
         <v>-0.00490459445617041</v>
       </c>
+      <c r="G15" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.001024221120294107</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.001892158718846281</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.002403697308819285</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.009922160917919283</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -692,6 +917,21 @@
       <c r="E16" t="n">
         <v>-0.004925802746037281</v>
       </c>
+      <c r="G16" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.001054079430063863</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.001917450386216691</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.002481294879228758</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.0100252469223999</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -709,6 +949,21 @@
       <c r="E17" t="n">
         <v>-0.004993525149645653</v>
       </c>
+      <c r="G17" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.001043266386261401</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.001959042669721595</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-0.002265260311995156</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.01025319870161056</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -726,6 +981,21 @@
       <c r="E18" t="n">
         <v>-0.005005279332140838</v>
       </c>
+      <c r="G18" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.001072574711809798</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.00197843441801686</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.002343162882649669</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.0103344507097771</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -743,6 +1013,21 @@
       <c r="E19" t="n">
         <v>-0.005062100806841981</v>
       </c>
+      <c r="G19" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.001064170841513551</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.002014051693919173</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.002160380093067063</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.01053406826256635</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -760,6 +1045,21 @@
       <c r="E20" t="n">
         <v>-0.00506719244610506</v>
       </c>
+      <c r="G20" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.001091216892553223</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0.002029231619055173</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.002235456305255593</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.01059768388949306</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -777,6 +1077,21 @@
       <c r="E21" t="n">
         <v>-0.005115581183303242</v>
       </c>
+      <c r="G21" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.001083466131010398</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-0.002060005159182764</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.002065954649127256</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-0.0107737850432348</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -794,6 +1109,21 @@
       <c r="E22" t="n">
         <v>-0.00511448542817856</v>
       </c>
+      <c r="G22" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.00110914244533218</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.002072101373358036</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0.00213965844610968</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-0.01082590075458199</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -811,6 +1141,21 @@
       <c r="E23" t="n">
         <v>-0.00515483265341757</v>
       </c>
+      <c r="G23" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.001102078908997827</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.002098797774779883</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.001983476430233148</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.01098217168592791</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -828,6 +1173,21 @@
       <c r="E24" t="n">
         <v>-0.005151116553071987</v>
       </c>
+      <c r="G24" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.001125612522682074</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.002107980822252976</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.002052203785121818</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-0.01102342159241797</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -845,6 +1205,21 @@
       <c r="E25" t="n">
         <v>-0.005186327012456313</v>
       </c>
+      <c r="G25" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.001120208890980823</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-0.002131034525593842</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-0.001919898493278566</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-0.01116230523338619</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -862,6 +1237,21 @@
       <c r="E26" t="n">
         <v>-0.005183733090287916</v>
       </c>
+      <c r="G26" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.001142591181882875</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0.002138528314956111</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0.00198880640683594</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-0.01119842808838134</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -879,6 +1269,21 @@
       <c r="E27" t="n">
         <v>-0.005215878073401654</v>
       </c>
+      <c r="G27" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.001138973394024976</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.002158617057748007</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0.001873656719605867</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-0.0113216312760366</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -896,6 +1301,21 @@
       <c r="E28" t="n">
         <v>-0.00521349634359139</v>
       </c>
+      <c r="G28" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.001159383339700696</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-0.002164300643003574</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0.001926380503723648</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.01135298411219348</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -913,6 +1333,21 @@
       <c r="E29" t="n">
         <v>-0.005241238496075572</v>
       </c>
+      <c r="G29" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.001156556423420017</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-0.002181542758456624</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-0.001819788101346843</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.01146125716623695</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -930,6 +1365,21 @@
       <c r="E30" t="n">
         <v>-0.005239389411215705</v>
       </c>
+      <c r="G30" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.001175123024497555</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-0.002186341882181698</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-0.001867865009196906</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-0.01149034416416925</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -947,6 +1397,21 @@
       <c r="E31" t="n">
         <v>-0.005261649209986204</v>
       </c>
+      <c r="G31" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.001173123032709783</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.002201067755204452</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.001778805327182854</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.01158321514669368</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -964,6 +1429,21 @@
       <c r="E32" t="n">
         <v>-0.005260143639817735</v>
       </c>
+      <c r="G32" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0.001188707819057992</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-0.00220495394251348</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-0.00181128125278529</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.01161076662074691</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -981,6 +1461,21 @@
       <c r="E33" t="n">
         <v>-0.005276652467792767</v>
       </c>
+      <c r="G33" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-0.001187675700786559</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-0.002216984340133574</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-0.001734299466719729</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-0.01168819477139545</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -998,6 +1493,21 @@
       <c r="E34" t="n">
         <v>-0.005276172814341054</v>
       </c>
+      <c r="G34" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.001200101000536021</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.002220258304540943</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.001751420663403907</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.01171467165548888</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1015,6 +1525,21 @@
       <c r="E35" t="n">
         <v>-0.005289038146141068</v>
       </c>
+      <c r="G35" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-0.001200154425624334</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-0.002230265001558196</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-0.001694553932645596</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.01177789740919507</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1032,6 +1557,21 @@
       <c r="E36" t="n">
         <v>-0.005291104465035245</v>
       </c>
+      <c r="G36" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.001211033176016422</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-0.002233605317468148</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-0.001708640014305633</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.01180620521607692</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1049,6 +1589,21 @@
       <c r="E37" t="n">
         <v>-0.005300279175434707</v>
       </c>
+      <c r="G37" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-0.001211732444268978</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-0.002242008932499171</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-0.001662338723018039</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.01185932928288343</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1066,6 +1621,21 @@
       <c r="E38" t="n">
         <v>-0.005303811029808493</v>
       </c>
+      <c r="G38" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.001219940474346774</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.002245016901215504</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-0.001659137156493882</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.01188756454483301</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1083,6 +1653,21 @@
       <c r="E39" t="n">
         <v>-0.005310432442520047</v>
       </c>
+      <c r="G39" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-0.00122172620445915</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-0.002251872257996386</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-0.001622834648251355</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.01192974500048718</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1100,6 +1685,21 @@
       <c r="E40" t="n">
         <v>-0.005316371254568667</v>
       </c>
+      <c r="G40" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-0.001228910306279529</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-0.002255182613338846</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-0.001614845257275209</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.01196100686847414</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1117,6 +1717,21 @@
       <c r="E41" t="n">
         <v>-0.005320307882084489</v>
       </c>
+      <c r="G41" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-0.001233581127614216</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-0.002260837571020093</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-0.001606405329360435</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.01199368812968911</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1134,6 +1749,21 @@
       <c r="E42" t="n">
         <v>-0.005328457624080429</v>
       </c>
+      <c r="G42" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-0.001239163581039959</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-0.002264563686409899</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-0.001592194792352266</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.0120287481361228</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1151,6 +1781,21 @@
       <c r="E43" t="n">
         <v>-0.005327923111450173</v>
       </c>
+      <c r="G43" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-0.001243967681938611</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-0.002268795653184578</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-0.001591538701583045</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.01205242927720107</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1168,6 +1813,21 @@
       <c r="E44" t="n">
         <v>-0.005337455017693274</v>
       </c>
+      <c r="G44" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-0.0012462882807072</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-0.00227236347466864</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-0.001557176499325961</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.01208905035095093</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1185,6 +1845,21 @@
       <c r="E45" t="n">
         <v>-0.005334753766886988</v>
       </c>
+      <c r="G45" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-0.0012529707490827</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-0.002275155274753741</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-0.001570862027006528</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.01210296828815955</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1202,6 +1877,21 @@
       <c r="E46" t="n">
         <v>-0.005347534295967422</v>
       </c>
+      <c r="G46" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-0.001253872472612413</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-0.002279640060295512</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-0.001527287437473811</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.01214624600013961</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1219,6 +1909,21 @@
       <c r="E47" t="n">
         <v>-0.005342020679070613</v>
       </c>
+      <c r="G47" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.001262118119203349</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.002281103446291552</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.001557202121636061</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.01214971219390386</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1236,6 +1941,21 @@
       <c r="E48" t="n">
         <v>-0.005356860764875379</v>
       </c>
+      <c r="G48" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.001261687465125686</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.002285841207269031</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.001503953805972902</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.01219648047990006</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1253,6 +1973,21 @@
       <c r="E49" t="n">
         <v>-0.005348325678717303</v>
       </c>
+      <c r="G49" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.001271797017637371</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.002285970900348374</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.00154731340883413</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.01219093186868729</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1270,6 +2005,21 @@
       <c r="E50" t="n">
         <v>-0.005364935775799117</v>
       </c>
+      <c r="G50" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.001270006531970287</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.002291000968008514</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.001486235505273569</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.01224093272917684</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1287,6 +2037,21 @@
       <c r="E51" t="n">
         <v>-0.005352844700444321</v>
       </c>
+      <c r="G51" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.00128059322800315</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-0.002289928531217765</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.001538303066947842</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.01222703137784262</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1304,6 +2069,21 @@
       <c r="E52" t="n">
         <v>-0.00536932747881342</v>
       </c>
+      <c r="G52" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.001275522742191456</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.002295265216901867</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.001458527267889506</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.01228012137351231</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1321,6 +2101,21 @@
       <c r="E53" t="n">
         <v>-0.005353250253434728</v>
       </c>
+      <c r="G53" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-0.001286431862045467</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-0.002292784502823154</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-0.00152008240766158</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.01225616409780615</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1338,6 +2133,21 @@
       <c r="E54" t="n">
         <v>-0.005372255329226093</v>
       </c>
+      <c r="G54" t="n">
+        <v>17</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.001278524616759843</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.00229827607974016</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.001424962569120143</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.01231205577628566</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1355,6 +2165,21 @@
       <c r="E55" t="n">
         <v>-0.005354295666748869</v>
       </c>
+      <c r="G55" t="n">
+        <v>17.33</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-0.001290101684210943</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-0.00229454557529074</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-0.001495673282444148</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.01228013287438102</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1372,6 +2197,21 @@
       <c r="E56" t="n">
         <v>-0.00537587154852506</v>
       </c>
+      <c r="G56" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.001281102336027277</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.002300540256667143</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.001393495901838358</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.01233972407297361</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1389,6 +2229,21 @@
       <c r="E57" t="n">
         <v>-0.005356622963726061</v>
       </c>
+      <c r="G57" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.001294955937198884</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.002296130375328742</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.001481467563791081</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.01230184346612915</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1406,6 +2261,21 @@
       <c r="E58" t="n">
         <v>-0.005381315357834634</v>
       </c>
+      <c r="G58" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-0.001285995562146331</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-0.002302796007300215</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-0.001380977193364966</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-0.01236578540118665</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1423,6 +2293,21 @@
       <c r="E59" t="n">
         <v>-0.00536015732187695</v>
       </c>
+      <c r="G59" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.001300038008945352</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.002297457125153522</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.001471065876646665</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.01232134380429166</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1440,6 +2325,21 @@
       <c r="E60" t="n">
         <v>-0.005383935551405723</v>
       </c>
+      <c r="G60" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.001289582941650301</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.002304153683675751</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.001358241755313635</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.01238628008644121</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1457,6 +2357,21 @@
       <c r="E61" t="n">
         <v>-0.005361239001146109</v>
       </c>
+      <c r="G61" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-0.001305725739672051</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-0.002298362598906021</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-0.001461908446450037</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-0.01233841198041653</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1474,6 +2389,21 @@
       <c r="E62" t="n">
         <v>-0.005385099431847073</v>
       </c>
+      <c r="G62" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-0.001293730665603449</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-0.002305496249152707</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-0.001338551018143278</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-0.0124068568537566</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1491,6 +2421,21 @@
       <c r="E63" t="n">
         <v>-0.00535963904172655</v>
       </c>
+      <c r="G63" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.001309865689676627</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.002298902913756059</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.001443976253311642</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.01235500488746912</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1508,6 +2453,21 @@
       <c r="E64" t="n">
         <v>-0.005386685468586954</v>
       </c>
+      <c r="G64" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.001297302997848973</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.002306308570400454</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.001317162211654851</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.01242651203353366</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1525,6 +2485,21 @@
       <c r="E65" t="n">
         <v>-0.005360472510861414</v>
       </c>
+      <c r="G65" t="n">
+        <v>20.63</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.001315498575360304</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.002299132618882452</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.001437554758029997</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.01236959606582618</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1542,6 +2517,21 @@
       <c r="E66" t="n">
         <v>-0.005388818097591826</v>
       </c>
+      <c r="G66" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.001302837345893703</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.002307139879233585</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.001309896429725924</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.01244484517078134</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1559,6 +2549,21 @@
       <c r="E67" t="n">
         <v>-0.005362022728759546</v>
       </c>
+      <c r="G67" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.001321597727706096</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.00229932105225579</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.001434928910469418</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.01238387263455136</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1576,6 +2581,21 @@
       <c r="E68" t="n">
         <v>-0.005391397526912121</v>
       </c>
+      <c r="G68" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-0.001306821891257213</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-0.00230728580561609</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-0.001293160046562615</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-0.01245973356941126</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1593,6 +2613,21 @@
       <c r="E69" t="n">
         <v>-0.005363950832982359</v>
       </c>
+      <c r="G69" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-0.001325682300305283</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-0.002299072464628764</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-0.001418819168285702</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-0.01239577830321597</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1610,6 +2645,21 @@
       <c r="E70" t="n">
         <v>-0.005394327958527007</v>
       </c>
+      <c r="G70" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-0.001310868534719284</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-0.002307614192973982</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-0.001277942990580458</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-0.01247376910252587</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1627,6 +2677,21 @@
       <c r="E71" t="n">
         <v>-0.005365108948300007</v>
       </c>
+      <c r="G71" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-0.001330699248220869</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-0.002299189205410962</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-0.001412530979957087</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-0.01240691395511532</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1644,6 +2709,21 @@
       <c r="E72" t="n">
         <v>-0.005394333589216717</v>
       </c>
+      <c r="G72" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-0.001314869418318159</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-0.002307724723866384</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-0.001267301165086845</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-0.01248491866047783</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1661,6 +2741,21 @@
       <c r="E73" t="n">
         <v>-0.005361734634635045</v>
       </c>
+      <c r="G73" t="n">
+        <v>23.27</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-0.001334161568392362</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-0.002298515716562467</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-0.001402609599574399</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-0.01241368802150618</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1678,6 +2773,21 @@
       <c r="E74" t="n">
         <v>-0.005392393092823847</v>
       </c>
+      <c r="G74" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-0.001316481173535802</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-0.002307059308340591</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-0.001248591457866017</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-0.01249214136727886</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1695,6 +2805,21 @@
       <c r="E75" t="n">
         <v>-0.005359578695064388</v>
       </c>
+      <c r="G75" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-0.001335642973202993</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-0.00229748852379466</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-0.001386062679195933</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-0.01241832009539996</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1712,6 +2837,21 @@
       <c r="E76" t="n">
         <v>-0.005391344977180709</v>
       </c>
+      <c r="G76" t="n">
+        <v>24.26</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-0.001317971040987202</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-0.002306092545316306</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-0.001232857649877633</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-0.01249617799004239</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1729,6 +2869,21 @@
       <c r="E77" t="n">
         <v>-0.005358402174018647</v>
       </c>
+      <c r="G77" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-0.001337327289090176</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-0.002296535800629017</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-0.001370236603422891</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-0.012421798481715</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1746,6 +2901,21 @@
       <c r="E78" t="n">
         <v>-0.005390244542404219</v>
       </c>
+      <c r="G78" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-0.001319728936804159</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-0.00230521549360291</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-0.00121993539308099</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-0.01249889172069135</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1763,6 +2933,21 @@
       <c r="E79" t="n">
         <v>-0.005357100534374266</v>
       </c>
+      <c r="G79" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-0.001338109538728818</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-0.002295730639353756</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-0.001353130284955916</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-0.01242487424185943</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1780,6 +2965,21 @@
       <c r="E80" t="n">
         <v>-0.005387835243883993</v>
       </c>
+      <c r="G80" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-0.001319905813905427</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-0.002304499969493054</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-0.001199827748413531</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-0.01250167097912211</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1797,6 +2997,21 @@
       <c r="E81" t="n">
         <v>-0.005354255275825015</v>
       </c>
+      <c r="G81" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-0.00133952729803989</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-0.002295208395791877</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-0.001340036418952342</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-0.01242841386683679</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1814,6 +3029,21 @@
       <c r="E82" t="n">
         <v>-0.005384159131838408</v>
       </c>
+      <c r="G82" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-0.001321550702875372</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-0.00230412563655481</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-0.001186951840816112</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-0.01250620569519596</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1831,6 +3061,21 @@
       <c r="E83" t="n">
         <v>-0.005350465253346919</v>
       </c>
+      <c r="G83" t="n">
+        <v>26.57</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-0.00134091839331905</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-0.002294616097991374</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-0.001321903769422018</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-0.01243335718459984</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1848,6 +3093,21 @@
       <c r="E84" t="n">
         <v>-0.005380793514086902</v>
       </c>
+      <c r="G84" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-0.001323424330334433</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-0.002303468004813205</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-0.001172155449458037</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-0.01251143215372026</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1865,6 +3125,21 @@
       <c r="E85" t="n">
         <v>-0.005349097348164295</v>
       </c>
+      <c r="G85" t="n">
+        <v>27.23</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-0.001344751001108354</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-0.002294127392157103</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-0.001319190246928431</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-0.01243955538299269</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1882,6 +3157,21 @@
       <c r="E86" t="n">
         <v>-0.005380251909868081</v>
       </c>
+      <c r="G86" t="n">
+        <v>27.56</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-0.001328397963977186</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-0.002303539227681197</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-0.001178235034986347</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-0.01251999447855056</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1899,6 +3189,21 @@
       <c r="E87" t="n">
         <v>-0.005349841078637778</v>
       </c>
+      <c r="G87" t="n">
+        <v>27.89</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-0.001349621965642199</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-0.00229403854563057</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-0.001325068577652791</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-0.01244784347547229</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1916,6 +3221,21 @@
       <c r="E88" t="n">
         <v>-0.005380610917777077</v>
       </c>
+      <c r="G88" t="n">
+        <v>28.22</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-0.00133199388940798</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-0.002303502763630815</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-0.00117323957865902</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-0.0125286823062386</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1933,6 +3253,21 @@
       <c r="E89" t="n">
         <v>-0.005351219317820002</v>
       </c>
+      <c r="G89" t="n">
+        <v>28.55</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-0.001353837792125499</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-0.002294009544840165</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-0.001322303216355468</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-0.01245677107846073</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1950,6 +3285,21 @@
       <c r="E90" t="n">
         <v>-0.005382440587066107</v>
       </c>
+      <c r="G90" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-0.001336142397704746</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-0.002303808266339814</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-0.001170593528401526</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-0.01253806301753913</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1967,6 +3317,21 @@
       <c r="E91" t="n">
         <v>-0.00535209409753172</v>
       </c>
+      <c r="G91" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-0.001357929389492886</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-0.002294226243870056</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-0.001320139555643519</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-0.01246489972016508</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1984,6 +3349,21 @@
       <c r="E92" t="n">
         <v>-0.005381377025306105</v>
       </c>
+      <c r="G92" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-0.00133879401672715</v>
+      </c>
+      <c r="I92" t="n">
+        <v>-0.002304092835721449</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-0.00116541352565013</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-0.01254593067515375</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2001,6 +3381,21 @@
       <c r="E93" t="n">
         <v>-0.005349976945359221</v>
       </c>
+      <c r="G93" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-0.001360089240438655</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-0.002293995843439442</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-0.001317081293173422</v>
+      </c>
+      <c r="K93" t="n">
+        <v>-0.01247035355234368</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2018,6 +3413,21 @@
       <c r="E94" t="n">
         <v>-0.005378568156980232</v>
       </c>
+      <c r="G94" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-0.001339493604134258</v>
+      </c>
+      <c r="I94" t="n">
+        <v>-0.002303865861996771</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-0.001158754787325586</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-0.01255180678111603</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2035,6 +3445,21 @@
       <c r="E95" t="n">
         <v>-0.005347289394652579</v>
       </c>
+      <c r="G95" t="n">
+        <v>30.53</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-0.001360939717450548</v>
+      </c>
+      <c r="I95" t="n">
+        <v>-0.002293228867703579</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-0.001314120709307242</v>
+      </c>
+      <c r="K95" t="n">
+        <v>-0.01247428422982451</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2052,6 +3477,21 @@
       <c r="E96" t="n">
         <v>-0.005376600023408462</v>
       </c>
+      <c r="G96" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-0.001339669396153012</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-0.002303339885513067</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-0.001148584157400068</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-0.01255592199868237</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2069,6 +3509,21 @@
       <c r="E97" t="n">
         <v>-0.005346532696549614</v>
       </c>
+      <c r="G97" t="n">
+        <v>31.19</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-0.001361936526239421</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-0.002292929985364314</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-0.00130818500251801</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-0.01247877279276875</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2086,6 +3541,21 @@
       <c r="E98" t="n">
         <v>-0.005375925114476013</v>
       </c>
+      <c r="G98" t="n">
+        <v>31.52</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-0.001340941717623759</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-0.002303327142832914</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-0.001145564385321229</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-0.01256067814075257</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2103,6 +3573,21 @@
       <c r="E99" t="n">
         <v>-0.005347109284387967</v>
       </c>
+      <c r="G99" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-0.001362603443407266</v>
+      </c>
+      <c r="I99" t="n">
+        <v>-0.002292864486365476</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-0.001299031886698456</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-0.01248364790909911</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2120,6 +3605,21 @@
       <c r="E100" t="n">
         <v>-0.005376620091366943</v>
       </c>
+      <c r="G100" t="n">
+        <v>32.18</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-0.001341315073591649</v>
+      </c>
+      <c r="I100" t="n">
+        <v>-0.002303373624846583</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-0.001131004097924462</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-0.01256539232087718</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2137,6 +3637,21 @@
       <c r="E101" t="n">
         <v>-0.005347367604663238</v>
       </c>
+      <c r="G101" t="n">
+        <v>32.51</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-0.001364302755056395</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-0.002293078430315754</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-0.001292878908480922</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-0.01248923087141265</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2154,6 +3669,21 @@
       <c r="E102" t="n">
         <v>-0.005376833354369388</v>
       </c>
+      <c r="G102" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-0.001343242133389316</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-0.002303861815653407</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-0.001129556595719455</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-0.01257314086927619</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2171,6 +3701,21 @@
       <c r="E103" t="n">
         <v>-0.005347921566956244</v>
       </c>
+      <c r="G103" t="n">
+        <v>33.17</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-0.001366655112325745</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-0.002293252313540065</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-0.001295194988749041</v>
+      </c>
+      <c r="K103" t="n">
+        <v>-0.01249651705045085</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2188,6 +3733,21 @@
       <c r="E104" t="n">
         <v>-0.005379001415686184</v>
       </c>
+      <c r="G104" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-0.001346454998738173</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-0.002303949290357538</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-0.00113844442245649</v>
+      </c>
+      <c r="K104" t="n">
+        <v>-0.01258025047346959</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2205,6 +3765,21 @@
       <c r="E105" t="n">
         <v>-0.0053505696594652</v>
       </c>
+      <c r="G105" t="n">
+        <v>33.83</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-0.00137007040132471</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-0.002293414184086545</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-0.001302820008428806</v>
+      </c>
+      <c r="K105" t="n">
+        <v>-0.01250524179979037</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2222,6 +3797,21 @@
       <c r="E106" t="n">
         <v>-0.005381336713904948</v>
       </c>
+      <c r="G106" t="n">
+        <v>34.16</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-0.001349554692507875</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-0.002304115467498279</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-0.001139540730315436</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-0.01258833557468826</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2239,6 +3829,21 @@
       <c r="E107" t="n">
         <v>-0.005354323701502916</v>
       </c>
+      <c r="G107" t="n">
+        <v>34.49</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-0.001373060719630312</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-0.002293616287797186</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-0.001297985622761556</v>
+      </c>
+      <c r="K107" t="n">
+        <v>-0.01251404610662605</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2256,6 +3861,21 @@
       <c r="E108" t="n">
         <v>-0.005385107177039822</v>
       </c>
+      <c r="G108" t="n">
+        <v>34.82</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-0.001352847060281136</v>
+      </c>
+      <c r="I108" t="n">
+        <v>-0.002304491314979562</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-0.001137327666516269</v>
+      </c>
+      <c r="K108" t="n">
+        <v>-0.01259680783203125</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2273,6 +3893,21 @@
       <c r="E109" t="n">
         <v>-0.005358886159326995</v>
       </c>
+      <c r="G109" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-0.001376651524649155</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-0.002294198639745629</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-0.001298398627706772</v>
+      </c>
+      <c r="K109" t="n">
+        <v>-0.01252348712301433</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2290,6 +3925,21 @@
       <c r="E110" t="n">
         <v>-0.005389028401577949</v>
       </c>
+      <c r="G110" t="n">
+        <v>35.48</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-0.001356520101789885</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-0.002304988995395895</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-0.001139762255682691</v>
+      </c>
+      <c r="K110" t="n">
+        <v>-0.01260377747270669</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2307,6 +3957,21 @@
       <c r="E111" t="n">
         <v>-0.005361353510425255</v>
       </c>
+      <c r="G111" t="n">
+        <v>35.81</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-0.001378430458330093</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-0.002294693194106199</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-0.001293387193246344</v>
+      </c>
+      <c r="K111" t="n">
+        <v>-0.01253101352894905</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2324,6 +3989,21 @@
       <c r="E112" t="n">
         <v>-0.005388238527218064</v>
       </c>
+      <c r="G112" t="n">
+        <v>36.14</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-0.001357273418843237</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-0.002304746847833941</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-0.001136546989940053</v>
+      </c>
+      <c r="K112" t="n">
+        <v>-0.01260639276380204</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2341,6 +4021,21 @@
       <c r="E113" t="n">
         <v>-0.005359762736752705</v>
       </c>
+      <c r="G113" t="n">
+        <v>36.47</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-0.001376841856457349</v>
+      </c>
+      <c r="I113" t="n">
+        <v>-0.002294400169074375</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-0.00127844438996597</v>
+      </c>
+      <c r="K113" t="n">
+        <v>-0.012534716796959</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2358,6 +4053,21 @@
       <c r="E114" t="n">
         <v>-0.005387043985019037</v>
       </c>
+      <c r="G114" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-0.001355764240298389</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-0.002304155662308429</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-0.001124062483791297</v>
+      </c>
+      <c r="K114" t="n">
+        <v>-0.01260739620695376</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2375,6 +4085,21 @@
       <c r="E115" t="n">
         <v>-0.005360696257842574</v>
       </c>
+      <c r="G115" t="n">
+        <v>37.13</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-0.00137537194311756</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-0.00229414127519153</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-0.001263012438751017</v>
+      </c>
+      <c r="K115" t="n">
+        <v>-0.01253898372228121</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2392,6 +4117,21 @@
       <c r="E116" t="n">
         <v>-0.005387372816128395</v>
       </c>
+      <c r="G116" t="n">
+        <v>37.46</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-0.001355444130903936</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-0.002303402076823046</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-0.001114000923046867</v>
+      </c>
+      <c r="K116" t="n">
+        <v>-0.01260740508767894</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2409,6 +4149,21 @@
       <c r="E117" t="n">
         <v>-0.005362469102663201</v>
       </c>
+      <c r="G117" t="n">
+        <v>37.79</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-0.001374629074494054</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-0.002293957625385871</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-0.001249694145730788</v>
+      </c>
+      <c r="K117" t="n">
+        <v>-0.01254253783869258</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2426,6 +4181,21 @@
       <c r="E118" t="n">
         <v>-0.005387852289277469</v>
       </c>
+      <c r="G118" t="n">
+        <v>38.12</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-0.001356678194284527</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-0.00230313487860075</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-0.00112080872698446</v>
+      </c>
+      <c r="K118" t="n">
+        <v>-0.01260845009522794</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2443,6 +4213,21 @@
       <c r="E119" t="n">
         <v>-0.005364539098805989</v>
       </c>
+      <c r="G119" t="n">
+        <v>38.45</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-0.001374477917225391</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-0.002294390121690634</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-0.001245386448354667</v>
+      </c>
+      <c r="K119" t="n">
+        <v>-0.01254802490508064</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2460,6 +4245,21 @@
       <c r="E120" t="n">
         <v>-0.005388084441807518</v>
       </c>
+      <c r="G120" t="n">
+        <v>38.78</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-0.001358061206087637</v>
+      </c>
+      <c r="I120" t="n">
+        <v>-0.002303382166384311</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-0.001124062262989726</v>
+      </c>
+      <c r="K120" t="n">
+        <v>-0.01261050758744875</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2477,6 +4277,21 @@
       <c r="E121" t="n">
         <v>-0.00536479679185209</v>
       </c>
+      <c r="G121" t="n">
+        <v>39.11</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-0.001375477603933417</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-0.002295324702538952</v>
+      </c>
+      <c r="J121" t="n">
+        <v>-0.00124118092434795</v>
+      </c>
+      <c r="K121" t="n">
+        <v>-0.01255596140960668</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2494,6 +4309,21 @@
       <c r="E122" t="n">
         <v>-0.005385252842575033</v>
       </c>
+      <c r="G122" t="n">
+        <v>39.44</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-0.001359560398993116</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-0.002303579493095995</v>
+      </c>
+      <c r="J122" t="n">
+        <v>-0.001121326289397861</v>
+      </c>
+      <c r="K122" t="n">
+        <v>-0.01261425944246472</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2511,6 +4341,21 @@
       <c r="E123" t="n">
         <v>-0.005363750947265257</v>
       </c>
+      <c r="G123" t="n">
+        <v>39.77</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-0.001375300018771939</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-0.002295678439900569</v>
+      </c>
+      <c r="J123" t="n">
+        <v>-0.001227649361643992</v>
+      </c>
+      <c r="K123" t="n">
+        <v>-0.01256337689852164</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2528,6 +4373,21 @@
       <c r="E124" t="n">
         <v>-0.005383632243605148</v>
       </c>
+      <c r="G124" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-0.001361703652063208</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-0.002303496188051756</v>
+      </c>
+      <c r="J124" t="n">
+        <v>-0.001128963381608009</v>
+      </c>
+      <c r="K124" t="n">
+        <v>-0.01261776952968104</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2545,6 +4405,21 @@
       <c r="E125" t="n">
         <v>-0.005367049495455128</v>
       </c>
+      <c r="G125" t="n">
+        <v>40.43</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-0.001377168717030849</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-0.002296804798266898</v>
+      </c>
+      <c r="J125" t="n">
+        <v>-0.001231579448265415</v>
+      </c>
+      <c r="K125" t="n">
+        <v>-0.01257482112693822</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2562,6 +4437,21 @@
       <c r="E126" t="n">
         <v>-0.005386258864177735</v>
       </c>
+      <c r="G126" t="n">
+        <v>40.76</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-0.00136593648203126</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-0.002304167684089745</v>
+      </c>
+      <c r="J126" t="n">
+        <v>-0.001146792048712469</v>
+      </c>
+      <c r="K126" t="n">
+        <v>-0.0126244053110813</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2579,6 +4469,21 @@
       <c r="E127" t="n">
         <v>-0.005371789488712613</v>
       </c>
+      <c r="G127" t="n">
+        <v>41.09</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-0.001379564449159338</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-0.002298036096404421</v>
+      </c>
+      <c r="J127" t="n">
+        <v>-0.001231642227965504</v>
+      </c>
+      <c r="K127" t="n">
+        <v>-0.01258657485487818</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2596,6 +4501,21 @@
       <c r="E128" t="n">
         <v>-0.005388905020425968</v>
       </c>
+      <c r="G128" t="n">
+        <v>41.42</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-0.001369251283987814</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-0.002304629180909676</v>
+      </c>
+      <c r="J128" t="n">
+        <v>-0.001152078866145647</v>
+      </c>
+      <c r="K128" t="n">
+        <v>-0.01263022953955907</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -2613,6 +4533,21 @@
       <c r="E129" t="n">
         <v>-0.005377085766703669</v>
       </c>
+      <c r="G129" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-0.001381365957806205</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-0.002299529634607864</v>
+      </c>
+      <c r="J129" t="n">
+        <v>-0.001227262294276504</v>
+      </c>
+      <c r="K129" t="n">
+        <v>-0.01259929689475965</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -2630,6 +4565,21 @@
       <c r="E130" t="n">
         <v>-0.005390670397471654</v>
       </c>
+      <c r="G130" t="n">
+        <v>42.08</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-0.00137224229200206</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-0.002305304624922489</v>
+      </c>
+      <c r="J130" t="n">
+        <v>-0.001161180337217221</v>
+      </c>
+      <c r="K130" t="n">
+        <v>-0.01263540901663284</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -2647,6 +4597,21 @@
       <c r="E131" t="n">
         <v>-0.005380986681823939</v>
       </c>
+      <c r="G131" t="n">
+        <v>42.41</v>
+      </c>
+      <c r="H131" t="n">
+        <v>-0.001381714332715138</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-0.002300984847609923</v>
+      </c>
+      <c r="J131" t="n">
+        <v>-0.001219991312008594</v>
+      </c>
+      <c r="K131" t="n">
+        <v>-0.01261009820139348</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -2664,6 +4629,21 @@
       <c r="E132" t="n">
         <v>-0.005390514972508065</v>
       </c>
+      <c r="G132" t="n">
+        <v>42.74</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-0.001373848729828173</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-0.002305561475504991</v>
+      </c>
+      <c r="J132" t="n">
+        <v>-0.001166540832465144</v>
+      </c>
+      <c r="K132" t="n">
+        <v>-0.01263732813974192</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -2681,6 +4661,21 @@
       <c r="E133" t="n">
         <v>-0.005383068326003958</v>
       </c>
+      <c r="G133" t="n">
+        <v>43.07</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-0.001380445613266861</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-0.002301889106905678</v>
+      </c>
+      <c r="J133" t="n">
+        <v>-0.001207297775099385</v>
+      </c>
+      <c r="K133" t="n">
+        <v>-0.01261804659713093</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -2698,6 +4693,21 @@
       <c r="E134" t="n">
         <v>-0.00538973099174013</v>
       </c>
+      <c r="G134" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-0.001374083698847266</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-0.00230538620259726</v>
+      </c>
+      <c r="J134" t="n">
+        <v>-0.001169712289530381</v>
+      </c>
+      <c r="K134" t="n">
+        <v>-0.01263760713690288</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -2715,6 +4725,21 @@
       <c r="E135" t="n">
         <v>-0.005385561167147612</v>
       </c>
+      <c r="G135" t="n">
+        <v>43.73</v>
+      </c>
+      <c r="H135" t="n">
+        <v>-0.001379843546893457</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-0.002302697766349914</v>
+      </c>
+      <c r="J135" t="n">
+        <v>-0.001206216056808101</v>
+      </c>
+      <c r="K135" t="n">
+        <v>-0.0126254320244756</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -2732,6 +4757,21 @@
       <c r="E136" t="n">
         <v>-0.005389557278748429</v>
       </c>
+      <c r="G136" t="n">
+        <v>44.06</v>
+      </c>
+      <c r="H136" t="n">
+        <v>-0.001374626536433946</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-0.002305654523411862</v>
+      </c>
+      <c r="J136" t="n">
+        <v>-0.001177340194007303</v>
+      </c>
+      <c r="K136" t="n">
+        <v>-0.01264002656386481</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -2749,6 +4789,21 @@
       <c r="E137" t="n">
         <v>-0.005387947232628969</v>
       </c>
+      <c r="G137" t="n">
+        <v>44.39</v>
+      </c>
+      <c r="H137" t="n">
+        <v>-0.001377950716736474</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-0.002303711055444538</v>
+      </c>
+      <c r="J137" t="n">
+        <v>-0.001191769167479493</v>
+      </c>
+      <c r="K137" t="n">
+        <v>-0.01263336287261968</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -2766,6 +4821,21 @@
       <c r="E138" t="n">
         <v>-0.005390164902002032</v>
       </c>
+      <c r="G138" t="n">
+        <v>44.72</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-0.001374437153146723</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-0.002305840352149246</v>
+      </c>
+      <c r="J138" t="n">
+        <v>-0.00117106248769137</v>
+      </c>
+      <c r="K138" t="n">
+        <v>-0.01264076994801567</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -2783,6 +4853,21 @@
       <c r="E139" t="n">
         <v>-0.005391736815466502</v>
       </c>
+      <c r="G139" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="H139" t="n">
+        <v>-0.001377261206534295</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-0.002304835299139079</v>
+      </c>
+      <c r="J139" t="n">
+        <v>-0.001179491570019901</v>
+      </c>
+      <c r="K139" t="n">
+        <v>-0.01264077642773355</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -2800,6 +4885,21 @@
       <c r="E140" t="n">
         <v>-0.005392016309354144</v>
       </c>
+      <c r="G140" t="n">
+        <v>45.38</v>
+      </c>
+      <c r="H140" t="n">
+        <v>-0.001377100507378452</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-0.0023062456507384</v>
+      </c>
+      <c r="J140" t="n">
+        <v>-0.001184458519196792</v>
+      </c>
+      <c r="K140" t="n">
+        <v>-0.01264219581540632</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -2817,6 +4917,21 @@
       <c r="E141" t="n">
         <v>-0.005396410824986908</v>
       </c>
+      <c r="G141" t="n">
+        <v>45.71</v>
+      </c>
+      <c r="H141" t="n">
+        <v>-0.001378772266044737</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-0.002306196604620947</v>
+      </c>
+      <c r="J141" t="n">
+        <v>-0.001185343653951612</v>
+      </c>
+      <c r="K141" t="n">
+        <v>-0.0126495893658335</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -2834,6 +4949,21 @@
       <c r="E142" t="n">
         <v>-0.00539282925011529</v>
       </c>
+      <c r="G142" t="n">
+        <v>46.04</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-0.001379217752809001</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-0.00230678225223555</v>
+      </c>
+      <c r="J142" t="n">
+        <v>-0.001196699552233195</v>
+      </c>
+      <c r="K142" t="n">
+        <v>-0.01264601423865995</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -2851,6 +4981,21 @@
       <c r="E143" t="n">
         <v>-0.005399079978360429</v>
       </c>
+      <c r="G143" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="H143" t="n">
+        <v>-0.001378017233356285</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-0.002307100424663851</v>
+      </c>
+      <c r="J143" t="n">
+        <v>-0.001175690103481637</v>
+      </c>
+      <c r="K143" t="n">
+        <v>-0.01265833103762496</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -2868,6 +5013,21 @@
       <c r="E144" t="n">
         <v>-0.005393711120385938</v>
       </c>
+      <c r="G144" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="H144" t="n">
+        <v>-0.001380659179076313</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-0.002306702641733361</v>
+      </c>
+      <c r="J144" t="n">
+        <v>-0.001200823678512036</v>
+      </c>
+      <c r="K144" t="n">
+        <v>-0.01264778346275855</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -2885,6 +5045,21 @@
       <c r="E145" t="n">
         <v>-0.005403564571134042</v>
       </c>
+      <c r="G145" t="n">
+        <v>47.03</v>
+      </c>
+      <c r="H145" t="n">
+        <v>-0.001378357188245054</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-0.002308295245356284</v>
+      </c>
+      <c r="J145" t="n">
+        <v>-0.001169262367485585</v>
+      </c>
+      <c r="K145" t="n">
+        <v>-0.01266937017852218</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -2902,6 +5077,21 @@
       <c r="E146" t="n">
         <v>-0.005395771054601238</v>
       </c>
+      <c r="G146" t="n">
+        <v>47.36</v>
+      </c>
+      <c r="H146" t="n">
+        <v>-0.001382970641550396</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-0.002306956049382317</v>
+      </c>
+      <c r="J146" t="n">
+        <v>-0.001209424361704582</v>
+      </c>
+      <c r="K146" t="n">
+        <v>-0.01265112001202489</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -2919,6 +5109,21 @@
       <c r="E147" t="n">
         <v>-0.005408034068750935</v>
       </c>
+      <c r="G147" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="H147" t="n">
+        <v>-0.001379644046664998</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-0.002309253651142153</v>
+      </c>
+      <c r="J147" t="n">
+        <v>-0.001168290068147687</v>
+      </c>
+      <c r="K147" t="n">
+        <v>-0.01267853856005779</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -2936,6 +5141,21 @@
       <c r="E148" t="n">
         <v>-0.005397516690637793</v>
       </c>
+      <c r="G148" t="n">
+        <v>48.02</v>
+      </c>
+      <c r="H148" t="n">
+        <v>-0.001386234671218025</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-0.002307009646256393</v>
+      </c>
+      <c r="J148" t="n">
+        <v>-0.001221300490933578</v>
+      </c>
+      <c r="K148" t="n">
+        <v>-0.01265346342433837</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -2953,6 +5173,21 @@
       <c r="E149" t="n">
         <v>-0.005411807226621071</v>
       </c>
+      <c r="G149" t="n">
+        <v>48.35</v>
+      </c>
+      <c r="H149" t="n">
+        <v>-0.001381613347893407</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-0.002310027036982604</v>
+      </c>
+      <c r="J149" t="n">
+        <v>-0.001170897331298488</v>
+      </c>
+      <c r="K149" t="n">
+        <v>-0.01268612396362924</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -2970,6 +5205,21 @@
       <c r="E150" t="n">
         <v>-0.00539794398289205</v>
       </c>
+      <c r="G150" t="n">
+        <v>48.68</v>
+      </c>
+      <c r="H150" t="n">
+        <v>-0.00138896677252887</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-0.002306987900585674</v>
+      </c>
+      <c r="J150" t="n">
+        <v>-0.001232345385586117</v>
+      </c>
+      <c r="K150" t="n">
+        <v>-0.01265466546298297</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -2987,6 +5237,21 @@
       <c r="E151" t="n">
         <v>-0.005412339293778418</v>
       </c>
+      <c r="G151" t="n">
+        <v>49.01</v>
+      </c>
+      <c r="H151" t="n">
+        <v>-0.001381215536734675</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-0.002310630487674233</v>
+      </c>
+      <c r="J151" t="n">
+        <v>-0.001162657038436895</v>
+      </c>
+      <c r="K151" t="n">
+        <v>-0.01269198075578339</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3004,6 +5269,21 @@
       <c r="E152" t="n">
         <v>-0.005394747603212265</v>
       </c>
+      <c r="G152" t="n">
+        <v>49.34</v>
+      </c>
+      <c r="H152" t="n">
+        <v>-0.00138890664274598</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-0.002306449573991196</v>
+      </c>
+      <c r="J152" t="n">
+        <v>-0.001231608167008795</v>
+      </c>
+      <c r="K152" t="n">
+        <v>-0.01265206267074665</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3021,6 +5301,21 @@
       <c r="E153" t="n">
         <v>-0.005411842910876027</v>
       </c>
+      <c r="G153" t="n">
+        <v>49.67</v>
+      </c>
+      <c r="H153" t="n">
+        <v>-0.001378235887091055</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-0.002310519064901638</v>
+      </c>
+      <c r="J153" t="n">
+        <v>-0.001144636871492556</v>
+      </c>
+      <c r="K153" t="n">
+        <v>-0.01269358404687203</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3038,6 +5333,21 @@
       <c r="E154" t="n">
         <v>-0.005392511784419658</v>
       </c>
+      <c r="G154" t="n">
+        <v>50</v>
+      </c>
+      <c r="H154" t="n">
+        <v>-0.001386704414576248</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-0.002305322603431509</v>
+      </c>
+      <c r="J154" t="n">
+        <v>-0.001221678891822318</v>
+      </c>
+      <c r="K154" t="n">
+        <v>-0.01264711083567372</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3055,6 +5365,21 @@
       <c r="E155" t="n">
         <v>-0.005412392842780202</v>
       </c>
+      <c r="G155" t="n">
+        <v>50.33</v>
+      </c>
+      <c r="H155" t="n">
+        <v>-0.001375101762227989</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-0.002310058638824706</v>
+      </c>
+      <c r="J155" t="n">
+        <v>-0.001127381071106853</v>
+      </c>
+      <c r="K155" t="n">
+        <v>-0.01269329851906421</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3072,6 +5397,21 @@
       <c r="E156" t="n">
         <v>-0.005391894206987545</v>
       </c>
+      <c r="G156" t="n">
+        <v>50.66</v>
+      </c>
+      <c r="H156" t="n">
+        <v>-0.001385995520676655</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-0.002304356511913349</v>
+      </c>
+      <c r="J156" t="n">
+        <v>-0.001221550255832386</v>
+      </c>
+      <c r="K156" t="n">
+        <v>-0.01264188802094211</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -3089,6 +5429,21 @@
       <c r="E157" t="n">
         <v>-0.005415058430683302</v>
       </c>
+      <c r="G157" t="n">
+        <v>50.99</v>
+      </c>
+      <c r="H157" t="n">
+        <v>-0.001374659940943678</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-0.002309912354387125</v>
+      </c>
+      <c r="J157" t="n">
+        <v>-0.001128710377341407</v>
+      </c>
+      <c r="K157" t="n">
+        <v>-0.01269341434706506</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -3106,6 +5461,21 @@
       <c r="E158" t="n">
         <v>-0.005392767110020028</v>
       </c>
+      <c r="G158" t="n">
+        <v>51.32</v>
+      </c>
+      <c r="H158" t="n">
+        <v>-0.00138601485927278</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-0.002303493158534767</v>
+      </c>
+      <c r="J158" t="n">
+        <v>-0.001225633156013204</v>
+      </c>
+      <c r="K158" t="n">
+        <v>-0.01263652130626777</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -3123,6 +5493,21 @@
       <c r="E159" t="n">
         <v>-0.00541517490588016</v>
       </c>
+      <c r="G159" t="n">
+        <v>51.65</v>
+      </c>
+      <c r="H159" t="n">
+        <v>-0.001373398835669618</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-0.002309294455020323</v>
+      </c>
+      <c r="J159" t="n">
+        <v>-0.001121268040376709</v>
+      </c>
+      <c r="K159" t="n">
+        <v>-0.01269004930302322</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -3140,6 +5525,21 @@
       <c r="E160" t="n">
         <v>-0.005391495688349436</v>
       </c>
+      <c r="G160" t="n">
+        <v>51.98</v>
+      </c>
+      <c r="H160" t="n">
+        <v>-0.001387002784247472</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-0.002302538134129737</v>
+      </c>
+      <c r="J160" t="n">
+        <v>-0.001231734078359896</v>
+      </c>
+      <c r="K160" t="n">
+        <v>-0.01263043950753335</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -3157,6 +5557,21 @@
       <c r="E161" t="n">
         <v>-0.005414080732152261</v>
       </c>
+      <c r="G161" t="n">
+        <v>52.31</v>
+      </c>
+      <c r="H161" t="n">
+        <v>-0.001372834171509907</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-0.002308879706312781</v>
+      </c>
+      <c r="J161" t="n">
+        <v>-0.001115512564673196</v>
+      </c>
+      <c r="K161" t="n">
+        <v>-0.01268828659631662</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -3174,6 +5589,21 @@
       <c r="E162" t="n">
         <v>-0.005387715020276584</v>
       </c>
+      <c r="G162" t="n">
+        <v>52.64</v>
+      </c>
+      <c r="H162" t="n">
+        <v>-0.001386438578694349</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-0.002301465994986523</v>
+      </c>
+      <c r="J162" t="n">
+        <v>-0.001226808475021478</v>
+      </c>
+      <c r="K162" t="n">
+        <v>-0.0126255782358425</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -3191,6 +5621,21 @@
       <c r="E163" t="n">
         <v>-0.005413546654069686</v>
       </c>
+      <c r="G163" t="n">
+        <v>52.97</v>
+      </c>
+      <c r="H163" t="n">
+        <v>-0.001371760535051829</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-0.002308199740120008</v>
+      </c>
+      <c r="J163" t="n">
+        <v>-0.001106716267036807</v>
+      </c>
+      <c r="K163" t="n">
+        <v>-0.01268718576789743</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -3208,6 +5653,21 @@
       <c r="E164" t="n">
         <v>-0.005386463436198787</v>
       </c>
+      <c r="G164" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="H164" t="n">
+        <v>-0.001387522366218012</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-0.002300264692280663</v>
+      </c>
+      <c r="J164" t="n">
+        <v>-0.001232697081868553</v>
+      </c>
+      <c r="K164" t="n">
+        <v>-0.01261988872450129</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -3225,6 +5685,21 @@
       <c r="E165" t="n">
         <v>-0.005413684543058105</v>
       </c>
+      <c r="G165" t="n">
+        <v>53.63</v>
+      </c>
+      <c r="H165" t="n">
+        <v>-0.001372898002466893</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-0.002307657615017016</v>
+      </c>
+      <c r="J165" t="n">
+        <v>-0.001111328457725281</v>
+      </c>
+      <c r="K165" t="n">
+        <v>-0.01268583573283459</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -3242,6 +5717,21 @@
       <c r="E166" t="n">
         <v>-0.005386075561702719</v>
       </c>
+      <c r="G166" t="n">
+        <v>53.96</v>
+      </c>
+      <c r="H166" t="n">
+        <v>-0.001389422517533758</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-0.002299158767508551</v>
+      </c>
+      <c r="J166" t="n">
+        <v>-0.001242180798809992</v>
+      </c>
+      <c r="K166" t="n">
+        <v>-0.01261512585795993</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -3259,6 +5749,21 @@
       <c r="E167" t="n">
         <v>-0.005414347751256164</v>
       </c>
+      <c r="G167" t="n">
+        <v>54.29</v>
+      </c>
+      <c r="H167" t="n">
+        <v>-0.00137271560057148</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-0.002306600570674407</v>
+      </c>
+      <c r="J167" t="n">
+        <v>-0.001106490687729175</v>
+      </c>
+      <c r="K167" t="n">
+        <v>-0.01268222037299689</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -3276,6 +5781,21 @@
       <c r="E168" t="n">
         <v>-0.005386143678481126</v>
       </c>
+      <c r="G168" t="n">
+        <v>54.62</v>
+      </c>
+      <c r="H168" t="n">
+        <v>-0.00138938200637912</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-0.00229778784507283</v>
+      </c>
+      <c r="J168" t="n">
+        <v>-0.001237246067221491</v>
+      </c>
+      <c r="K168" t="n">
+        <v>-0.0126090561639199</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -3293,6 +5813,21 @@
       <c r="E169" t="n">
         <v>-0.005415470666568987</v>
       </c>
+      <c r="G169" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="H169" t="n">
+        <v>-0.001372815997799222</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-0.002305843674423909</v>
+      </c>
+      <c r="J169" t="n">
+        <v>-0.001102331560290043</v>
+      </c>
+      <c r="K169" t="n">
+        <v>-0.01267872685612348</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -3310,6 +5845,21 @@
       <c r="E170" t="n">
         <v>-0.005385530388606927</v>
       </c>
+      <c r="G170" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="H170" t="n">
+        <v>-0.001390554681187406</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-0.002296867590915281</v>
+      </c>
+      <c r="J170" t="n">
+        <v>-0.001241925285620302</v>
+      </c>
+      <c r="K170" t="n">
+        <v>-0.01260308809723416</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -3327,6 +5877,21 @@
       <c r="E171" t="n">
         <v>-0.005413789096399477</v>
       </c>
+      <c r="G171" t="n">
+        <v>55.61</v>
+      </c>
+      <c r="H171" t="n">
+        <v>-0.001372967942520483</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-0.00230498087757467</v>
+      </c>
+      <c r="J171" t="n">
+        <v>-0.001101917078326742</v>
+      </c>
+      <c r="K171" t="n">
+        <v>-0.01267322765006457</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -3344,6 +5909,21 @@
       <c r="E172" t="n">
         <v>-0.00538051326033962</v>
       </c>
+      <c r="G172" t="n">
+        <v>55.94</v>
+      </c>
+      <c r="H172" t="n">
+        <v>-0.001390249877964016</v>
+      </c>
+      <c r="I172" t="n">
+        <v>-0.002295303273681167</v>
+      </c>
+      <c r="J172" t="n">
+        <v>-0.001242090666297985</v>
+      </c>
+      <c r="K172" t="n">
+        <v>-0.01259379781095594</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -3361,6 +5941,21 @@
       <c r="E173" t="n">
         <v>-0.005410208337563708</v>
       </c>
+      <c r="G173" t="n">
+        <v>56.27</v>
+      </c>
+      <c r="H173" t="n">
+        <v>-0.001370831339996873</v>
+      </c>
+      <c r="I173" t="n">
+        <v>-0.00230348818561321</v>
+      </c>
+      <c r="J173" t="n">
+        <v>-0.001092997255005014</v>
+      </c>
+      <c r="K173" t="n">
+        <v>-0.01266484308293488</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -3378,6 +5973,21 @@
       <c r="E174" t="n">
         <v>-0.005376720790115642</v>
       </c>
+      <c r="G174" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="H174" t="n">
+        <v>-0.001388042924781219</v>
+      </c>
+      <c r="I174" t="n">
+        <v>-0.002293477798819268</v>
+      </c>
+      <c r="J174" t="n">
+        <v>-0.001234728816853139</v>
+      </c>
+      <c r="K174" t="n">
+        <v>-0.01258321622782056</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -3395,6 +6005,21 @@
       <c r="E175" t="n">
         <v>-0.005407529780991494</v>
       </c>
+      <c r="G175" t="n">
+        <v>56.93</v>
+      </c>
+      <c r="H175" t="n">
+        <v>-0.00136872875704572</v>
+      </c>
+      <c r="I175" t="n">
+        <v>-0.002301733007767439</v>
+      </c>
+      <c r="J175" t="n">
+        <v>-0.001086349702224498</v>
+      </c>
+      <c r="K175" t="n">
+        <v>-0.01265391202630769</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -3412,6 +6037,21 @@
       <c r="E176" t="n">
         <v>-0.005373904621536996</v>
       </c>
+      <c r="G176" t="n">
+        <v>57.26</v>
+      </c>
+      <c r="H176" t="n">
+        <v>-0.001386163635881554</v>
+      </c>
+      <c r="I176" t="n">
+        <v>-0.002291760816217914</v>
+      </c>
+      <c r="J176" t="n">
+        <v>-0.001227808964077048</v>
+      </c>
+      <c r="K176" t="n">
+        <v>-0.01257192437908115</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -3429,6 +6069,21 @@
       <c r="E177" t="n">
         <v>-0.005404837410832538</v>
       </c>
+      <c r="G177" t="n">
+        <v>57.59</v>
+      </c>
+      <c r="H177" t="n">
+        <v>-0.001366978715285997</v>
+      </c>
+      <c r="I177" t="n">
+        <v>-0.002300104551990747</v>
+      </c>
+      <c r="J177" t="n">
+        <v>-0.00108181664927488</v>
+      </c>
+      <c r="K177" t="n">
+        <v>-0.01264213853380843</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -3446,6 +6101,21 @@
       <c r="E178" t="n">
         <v>-0.005371046408413081</v>
       </c>
+      <c r="G178" t="n">
+        <v>57.92</v>
+      </c>
+      <c r="H178" t="n">
+        <v>-0.001383577798291966</v>
+      </c>
+      <c r="I178" t="n">
+        <v>-0.002290233343446006</v>
+      </c>
+      <c r="J178" t="n">
+        <v>-0.001219412000723947</v>
+      </c>
+      <c r="K178" t="n">
+        <v>-0.01256083417347907</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -3463,6 +6133,21 @@
       <c r="E179" t="n">
         <v>-0.005400889498603434</v>
       </c>
+      <c r="G179" t="n">
+        <v>58.25</v>
+      </c>
+      <c r="H179" t="n">
+        <v>-0.0013638162987279</v>
+      </c>
+      <c r="I179" t="n">
+        <v>-0.002298678919533857</v>
+      </c>
+      <c r="J179" t="n">
+        <v>-0.001070378737785102</v>
+      </c>
+      <c r="K179" t="n">
+        <v>-0.01263096062946494</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -3480,6 +6165,21 @@
       <c r="E180" t="n">
         <v>-0.005366679023617469</v>
       </c>
+      <c r="G180" t="n">
+        <v>58.58</v>
+      </c>
+      <c r="H180" t="n">
+        <v>-0.001381687876866716</v>
+      </c>
+      <c r="I180" t="n">
+        <v>-0.002288996255622127</v>
+      </c>
+      <c r="J180" t="n">
+        <v>-0.00121465747601613</v>
+      </c>
+      <c r="K180" t="n">
+        <v>-0.01255053008186525</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -3497,6 +6197,21 @@
       <c r="E181" t="n">
         <v>-0.005395689952190103</v>
       </c>
+      <c r="G181" t="n">
+        <v>58.91</v>
+      </c>
+      <c r="H181" t="n">
+        <v>-0.001362255735677473</v>
+      </c>
+      <c r="I181" t="n">
+        <v>-0.002297582941001799</v>
+      </c>
+      <c r="J181" t="n">
+        <v>-0.00106611170253749</v>
+      </c>
+      <c r="K181" t="n">
+        <v>-0.01262172954021023</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -3514,6 +6229,21 @@
       <c r="E182" t="n">
         <v>-0.005361298115216551</v>
       </c>
+      <c r="G182" t="n">
+        <v>59.24</v>
+      </c>
+      <c r="H182" t="n">
+        <v>-0.001379897863699158</v>
+      </c>
+      <c r="I182" t="n">
+        <v>-0.002287708885085555</v>
+      </c>
+      <c r="J182" t="n">
+        <v>-0.001205268203716759</v>
+      </c>
+      <c r="K182" t="n">
+        <v>-0.01254185442448531</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -3531,6 +6261,21 @@
       <c r="E183" t="n">
         <v>-0.00539074452743294</v>
       </c>
+      <c r="G183" t="n">
+        <v>59.57</v>
+      </c>
+      <c r="H183" t="n">
+        <v>-0.001360953425853166</v>
+      </c>
+      <c r="I183" t="n">
+        <v>-0.002296242800629481</v>
+      </c>
+      <c r="J183" t="n">
+        <v>-0.001059807468951474</v>
+      </c>
+      <c r="K183" t="n">
+        <v>-0.01261345893204326</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -3548,6 +6293,21 @@
       <c r="E184" t="n">
         <v>-0.005358360850466566</v>
       </c>
+      <c r="G184" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="H184" t="n">
+        <v>-0.001380688708972934</v>
+      </c>
+      <c r="I184" t="n">
+        <v>-0.002286514208195682</v>
+      </c>
+      <c r="J184" t="n">
+        <v>-0.001211157423007361</v>
+      </c>
+      <c r="K184" t="n">
+        <v>-0.01253476241504132</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -3565,6 +6325,21 @@
       <c r="E185" t="n">
         <v>-0.00538860026159196</v>
       </c>
+      <c r="G185" t="n">
+        <v>60.23</v>
+      </c>
+      <c r="H185" t="n">
+        <v>-0.001362900202148798</v>
+      </c>
+      <c r="I185" t="n">
+        <v>-0.002295577803009927</v>
+      </c>
+      <c r="J185" t="n">
+        <v>-0.00107420049233603</v>
+      </c>
+      <c r="K185" t="n">
+        <v>-0.01260879951015562</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -3582,6 +6357,21 @@
       <c r="E186" t="n">
         <v>-0.005357458235310534</v>
       </c>
+      <c r="G186" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="H186" t="n">
+        <v>-0.001382559058960439</v>
+      </c>
+      <c r="I186" t="n">
+        <v>-0.002285677581413076</v>
+      </c>
+      <c r="J186" t="n">
+        <v>-0.001224775981177491</v>
+      </c>
+      <c r="K186" t="n">
+        <v>-0.01252996583807407</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -3599,6 +6389,21 @@
       <c r="E187" t="n">
         <v>-0.005387299575186505</v>
       </c>
+      <c r="G187" t="n">
+        <v>60.89</v>
+      </c>
+      <c r="H187" t="n">
+        <v>-0.001363564312226744</v>
+      </c>
+      <c r="I187" t="n">
+        <v>-0.002294771963835698</v>
+      </c>
+      <c r="J187" t="n">
+        <v>-0.001077041227785621</v>
+      </c>
+      <c r="K187" t="n">
+        <v>-0.01260448262679214</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -3616,6 +6421,21 @@
       <c r="E188" t="n">
         <v>-0.005357150308106781</v>
       </c>
+      <c r="G188" t="n">
+        <v>61.22</v>
+      </c>
+      <c r="H188" t="n">
+        <v>-0.001383866187314573</v>
+      </c>
+      <c r="I188" t="n">
+        <v>-0.002284876638337987</v>
+      </c>
+      <c r="J188" t="n">
+        <v>-0.001229563909065168</v>
+      </c>
+      <c r="K188" t="n">
+        <v>-0.01252601600375455</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -3633,6 +6453,21 @@
       <c r="E189" t="n">
         <v>-0.005387458122487152</v>
       </c>
+      <c r="G189" t="n">
+        <v>61.55</v>
+      </c>
+      <c r="H189" t="n">
+        <v>-0.001364804189487919</v>
+      </c>
+      <c r="I189" t="n">
+        <v>-0.002294298256230944</v>
+      </c>
+      <c r="J189" t="n">
+        <v>-0.001081653503334285</v>
+      </c>
+      <c r="K189" t="n">
+        <v>-0.01260103837114792</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -3650,6 +6485,21 @@
       <c r="E190" t="n">
         <v>-0.005356397757350945</v>
       </c>
+      <c r="G190" t="n">
+        <v>61.88</v>
+      </c>
+      <c r="H190" t="n">
+        <v>-0.001385150627693933</v>
+      </c>
+      <c r="I190" t="n">
+        <v>-0.002284305974909199</v>
+      </c>
+      <c r="J190" t="n">
+        <v>-0.001235022427871834</v>
+      </c>
+      <c r="K190" t="n">
+        <v>-0.01252143794817099</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -3667,6 +6517,21 @@
       <c r="E191" t="n">
         <v>-0.005384788054250887</v>
       </c>
+      <c r="G191" t="n">
+        <v>62.21</v>
+      </c>
+      <c r="H191" t="n">
+        <v>-0.001364559712828934</v>
+      </c>
+      <c r="I191" t="n">
+        <v>-0.002293784865010154</v>
+      </c>
+      <c r="J191" t="n">
+        <v>-0.001083696799912733</v>
+      </c>
+      <c r="K191" t="n">
+        <v>-0.01259618262697115</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -3684,6 +6549,21 @@
       <c r="E192" t="n">
         <v>-0.005352645933626279</v>
       </c>
+      <c r="G192" t="n">
+        <v>62.54</v>
+      </c>
+      <c r="H192" t="n">
+        <v>-0.00138438401273465</v>
+      </c>
+      <c r="I192" t="n">
+        <v>-0.002283282187131855</v>
+      </c>
+      <c r="J192" t="n">
+        <v>-0.001238379278739674</v>
+      </c>
+      <c r="K192" t="n">
+        <v>-0.01251423063173291</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -3701,6 +6581,21 @@
       <c r="E193" t="n">
         <v>-0.005380384981630268</v>
       </c>
+      <c r="G193" t="n">
+        <v>62.87</v>
+      </c>
+      <c r="H193" t="n">
+        <v>-0.001362573949164741</v>
+      </c>
+      <c r="I193" t="n">
+        <v>-0.002292779182281455</v>
+      </c>
+      <c r="J193" t="n">
+        <v>-0.001084552628039612</v>
+      </c>
+      <c r="K193" t="n">
+        <v>-0.01258944766063372</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -3718,6 +6613,21 @@
       <c r="E194" t="n">
         <v>-0.005348427560590611</v>
       </c>
+      <c r="G194" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="H194" t="n">
+        <v>-0.001382802033488496</v>
+      </c>
+      <c r="I194" t="n">
+        <v>-0.002281747243611288</v>
+      </c>
+      <c r="J194" t="n">
+        <v>-0.00124445156536628</v>
+      </c>
+      <c r="K194" t="n">
+        <v>-0.01250555739602262</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -3735,6 +6645,21 @@
       <c r="E195" t="n">
         <v>-0.005376802835847792</v>
       </c>
+      <c r="G195" t="n">
+        <v>63.53</v>
+      </c>
+      <c r="H195" t="n">
+        <v>-0.00136015485954192</v>
+      </c>
+      <c r="I195" t="n">
+        <v>-0.002291434138109812</v>
+      </c>
+      <c r="J195" t="n">
+        <v>-0.001082681606533485</v>
+      </c>
+      <c r="K195" t="n">
+        <v>-0.01258085611729583</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -3752,6 +6677,21 @@
       <c r="E196" t="n">
         <v>-0.005345713868155376</v>
       </c>
+      <c r="G196" t="n">
+        <v>63.86</v>
+      </c>
+      <c r="H196" t="n">
+        <v>-0.001380800885043842</v>
+      </c>
+      <c r="I196" t="n">
+        <v>-0.002280481656115235</v>
+      </c>
+      <c r="J196" t="n">
+        <v>-0.001245215552202561</v>
+      </c>
+      <c r="K196" t="n">
+        <v>-0.01249707912271273</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -3769,6 +6709,21 @@
       <c r="E197" t="n">
         <v>-0.005373891399167535</v>
       </c>
+      <c r="G197" t="n">
+        <v>64.19</v>
+      </c>
+      <c r="H197" t="n">
+        <v>-0.001358182034931445</v>
+      </c>
+      <c r="I197" t="n">
+        <v>-0.002290324813502545</v>
+      </c>
+      <c r="J197" t="n">
+        <v>-0.001085755762528339</v>
+      </c>
+      <c r="K197" t="n">
+        <v>-0.01257229014846522</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -3786,6 +6741,21 @@
       <c r="E198" t="n">
         <v>-0.005344087972851532</v>
       </c>
+      <c r="G198" t="n">
+        <v>64.52</v>
+      </c>
+      <c r="H198" t="n">
+        <v>-0.001378311945367922</v>
+      </c>
+      <c r="I198" t="n">
+        <v>-0.002279354591755949</v>
+      </c>
+      <c r="J198" t="n">
+        <v>-0.001242339291305431</v>
+      </c>
+      <c r="K198" t="n">
+        <v>-0.01248861044034146</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -3803,6 +6773,21 @@
       <c r="E199" t="n">
         <v>-0.005372577907884153</v>
       </c>
+      <c r="G199" t="n">
+        <v>64.84999999999999</v>
+      </c>
+      <c r="H199" t="n">
+        <v>-0.001355581961888948</v>
+      </c>
+      <c r="I199" t="n">
+        <v>-0.002289417996357778</v>
+      </c>
+      <c r="J199" t="n">
+        <v>-0.001077525986707515</v>
+      </c>
+      <c r="K199" t="n">
+        <v>-0.01256394663289867</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -3820,6 +6805,21 @@
       <c r="E200" t="n">
         <v>-0.005342405753095207</v>
       </c>
+      <c r="G200" t="n">
+        <v>65.18000000000001</v>
+      </c>
+      <c r="H200" t="n">
+        <v>-0.001377280954704689</v>
+      </c>
+      <c r="I200" t="n">
+        <v>-0.002278610465139334</v>
+      </c>
+      <c r="J200" t="n">
+        <v>-0.001243553234704332</v>
+      </c>
+      <c r="K200" t="n">
+        <v>-0.01248105477721174</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -3837,6 +6837,21 @@
       <c r="E201" t="n">
         <v>-0.005370844423648615</v>
       </c>
+      <c r="G201" t="n">
+        <v>65.51000000000001</v>
+      </c>
+      <c r="H201" t="n">
+        <v>-0.001354931711438513</v>
+      </c>
+      <c r="I201" t="n">
+        <v>-0.002288882938478895</v>
+      </c>
+      <c r="J201" t="n">
+        <v>-0.001084095591769017</v>
+      </c>
+      <c r="K201" t="n">
+        <v>-0.01255838164833879</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -3854,6 +6869,21 @@
       <c r="E202" t="n">
         <v>-0.005340953326808362</v>
       </c>
+      <c r="G202" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="H202" t="n">
+        <v>-0.001377047208196594</v>
+      </c>
+      <c r="I202" t="n">
+        <v>-0.002277718690034149</v>
+      </c>
+      <c r="J202" t="n">
+        <v>-0.001253864494946628</v>
+      </c>
+      <c r="K202" t="n">
+        <v>-0.01247500826229005</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -3871,6 +6901,21 @@
       <c r="E203" t="n">
         <v>-0.005370930526576959</v>
       </c>
+      <c r="G203" t="n">
+        <v>66.17</v>
+      </c>
+      <c r="H203" t="n">
+        <v>-0.001355421141890727</v>
+      </c>
+      <c r="I203" t="n">
+        <v>-0.002287856404837163</v>
+      </c>
+      <c r="J203" t="n">
+        <v>-0.001100630430790515</v>
+      </c>
+      <c r="K203" t="n">
+        <v>-0.01255201082741877</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -3888,6 +6933,21 @@
       <c r="E204" t="n">
         <v>-0.005341483547738664</v>
       </c>
+      <c r="G204" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="H204" t="n">
+        <v>-0.001377625309150274</v>
+      </c>
+      <c r="I204" t="n">
+        <v>-0.002276723141543527</v>
+      </c>
+      <c r="J204" t="n">
+        <v>-0.001268476384491925</v>
+      </c>
+      <c r="K204" t="n">
+        <v>-0.01247013342091692</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -3905,6 +6965,21 @@
       <c r="E205" t="n">
         <v>-0.005371120196339192</v>
       </c>
+      <c r="G205" t="n">
+        <v>66.83</v>
+      </c>
+      <c r="H205" t="n">
+        <v>-0.001355727280649859</v>
+      </c>
+      <c r="I205" t="n">
+        <v>-0.002286810409461912</v>
+      </c>
+      <c r="J205" t="n">
+        <v>-0.001108888198295516</v>
+      </c>
+      <c r="K205" t="n">
+        <v>-0.01254632213202928</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -3922,6 +6997,21 @@
       <c r="E206" t="n">
         <v>-0.005343011832621613</v>
       </c>
+      <c r="G206" t="n">
+        <v>67.16</v>
+      </c>
+      <c r="H206" t="n">
+        <v>-0.001377843373075617</v>
+      </c>
+      <c r="I206" t="n">
+        <v>-0.002275663704606593</v>
+      </c>
+      <c r="J206" t="n">
+        <v>-0.001271034731023205</v>
+      </c>
+      <c r="K206" t="n">
+        <v>-0.01246498570869673</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -3939,6 +7029,21 @@
       <c r="E207" t="n">
         <v>-0.005372631921706359</v>
       </c>
+      <c r="G207" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="H207" t="n">
+        <v>-0.00135619988007751</v>
+      </c>
+      <c r="I207" t="n">
+        <v>-0.002285890083050714</v>
+      </c>
+      <c r="J207" t="n">
+        <v>-0.001113714082050343</v>
+      </c>
+      <c r="K207" t="n">
+        <v>-0.01254075249985602</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -3956,6 +7061,21 @@
       <c r="E208" t="n">
         <v>-0.005345315839385205</v>
       </c>
+      <c r="G208" t="n">
+        <v>67.81999999999999</v>
+      </c>
+      <c r="H208" t="n">
+        <v>-0.001378652750217726</v>
+      </c>
+      <c r="I208" t="n">
+        <v>-0.002274911347614854</v>
+      </c>
+      <c r="J208" t="n">
+        <v>-0.001278650558386057</v>
+      </c>
+      <c r="K208" t="n">
+        <v>-0.01246031745175323</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -3973,6 +7093,21 @@
       <c r="E209" t="n">
         <v>-0.005374267621838103</v>
       </c>
+      <c r="G209" t="n">
+        <v>68.15000000000001</v>
+      </c>
+      <c r="H209" t="n">
+        <v>-0.001357039332876963</v>
+      </c>
+      <c r="I209" t="n">
+        <v>-0.002285010432775147</v>
+      </c>
+      <c r="J209" t="n">
+        <v>-0.001123237640797644</v>
+      </c>
+      <c r="K209" t="n">
+        <v>-0.01253347504294569</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -3990,6 +7125,21 @@
       <c r="E210" t="n">
         <v>-0.005345516604875812</v>
       </c>
+      <c r="G210" t="n">
+        <v>68.48</v>
+      </c>
+      <c r="H210" t="n">
+        <v>-0.001377603311630366</v>
+      </c>
+      <c r="I210" t="n">
+        <v>-0.00227398226682854</v>
+      </c>
+      <c r="J210" t="n">
+        <v>-0.001280315875860096</v>
+      </c>
+      <c r="K210" t="n">
+        <v>-0.01245350777197329</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -4007,6 +7157,21 @@
       <c r="E211" t="n">
         <v>-0.005371232750762686</v>
       </c>
+      <c r="G211" t="n">
+        <v>68.81</v>
+      </c>
+      <c r="H211" t="n">
+        <v>-0.001355175304792789</v>
+      </c>
+      <c r="I211" t="n">
+        <v>-0.002283298346762405</v>
+      </c>
+      <c r="J211" t="n">
+        <v>-0.001127485788333343</v>
+      </c>
+      <c r="K211" t="n">
+        <v>-0.0125215587326021</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -4024,6 +7189,21 @@
       <c r="E212" t="n">
         <v>-0.005341723870870859</v>
       </c>
+      <c r="G212" t="n">
+        <v>69.14</v>
+      </c>
+      <c r="H212" t="n">
+        <v>-0.00137355335175518</v>
+      </c>
+      <c r="I212" t="n">
+        <v>-0.00227217851208325</v>
+      </c>
+      <c r="J212" t="n">
+        <v>-0.001274018716849488</v>
+      </c>
+      <c r="K212" t="n">
+        <v>-0.01244244087769287</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -4041,6 +7221,21 @@
       <c r="E213" t="n">
         <v>-0.005367789837490275</v>
       </c>
+      <c r="G213" t="n">
+        <v>69.47</v>
+      </c>
+      <c r="H213" t="n">
+        <v>-0.001351070904471044</v>
+      </c>
+      <c r="I213" t="n">
+        <v>-0.002281100864037041</v>
+      </c>
+      <c r="J213" t="n">
+        <v>-0.001123153488494083</v>
+      </c>
+      <c r="K213" t="n">
+        <v>-0.01250754113563648</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -4058,6 +7253,21 @@
       <c r="E214" t="n">
         <v>-0.00533992517828838</v>
       </c>
+      <c r="G214" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="H214" t="n">
+        <v>-0.001369173471441808</v>
+      </c>
+      <c r="I214" t="n">
+        <v>-0.002270132186283818</v>
+      </c>
+      <c r="J214" t="n">
+        <v>-0.001265254559135659</v>
+      </c>
+      <c r="K214" t="n">
+        <v>-0.01243126202191475</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -4075,6 +7285,21 @@
       <c r="E215" t="n">
         <v>-0.005365067646862213</v>
       </c>
+      <c r="G215" t="n">
+        <v>70.13</v>
+      </c>
+      <c r="H215" t="n">
+        <v>-0.001347584490731388</v>
+      </c>
+      <c r="I215" t="n">
+        <v>-0.002278441570689773</v>
+      </c>
+      <c r="J215" t="n">
+        <v>-0.00111863664762433</v>
+      </c>
+      <c r="K215" t="n">
+        <v>-0.01249159830388807</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -4092,6 +7317,21 @@
       <c r="E216" t="n">
         <v>-0.005338976909921076</v>
       </c>
+      <c r="G216" t="n">
+        <v>70.45999999999999</v>
+      </c>
+      <c r="H216" t="n">
+        <v>-0.001365416177673728</v>
+      </c>
+      <c r="I216" t="n">
+        <v>-0.002268106805966532</v>
+      </c>
+      <c r="J216" t="n">
+        <v>-0.001258192846090666</v>
+      </c>
+      <c r="K216" t="n">
+        <v>-0.01241883850978115</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -4109,6 +7349,21 @@
       <c r="E217" t="n">
         <v>-0.005363120006574091</v>
       </c>
+      <c r="G217" t="n">
+        <v>70.79000000000001</v>
+      </c>
+      <c r="H217" t="n">
+        <v>-0.001346250059504178</v>
+      </c>
+      <c r="I217" t="n">
+        <v>-0.002276362046267874</v>
+      </c>
+      <c r="J217" t="n">
+        <v>-0.001134464323001279</v>
+      </c>
+      <c r="K217" t="n">
+        <v>-0.0124765589807042</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -4126,6 +7381,21 @@
       <c r="E218" t="n">
         <v>-0.005338332568011447</v>
       </c>
+      <c r="G218" t="n">
+        <v>71.12</v>
+      </c>
+      <c r="H218" t="n">
+        <v>-0.001362662354870311</v>
+      </c>
+      <c r="I218" t="n">
+        <v>-0.00226656409369043</v>
+      </c>
+      <c r="J218" t="n">
+        <v>-0.001263168428515762</v>
+      </c>
+      <c r="K218" t="n">
+        <v>-0.01240773532545216</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -4143,6 +7413,21 @@
       <c r="E219" t="n">
         <v>-0.005360039845768967</v>
       </c>
+      <c r="G219" t="n">
+        <v>71.45</v>
+      </c>
+      <c r="H219" t="n">
+        <v>-0.001344626520778768</v>
+      </c>
+      <c r="I219" t="n">
+        <v>-0.002274414135985578</v>
+      </c>
+      <c r="J219" t="n">
+        <v>-0.001145145872561958</v>
+      </c>
+      <c r="K219" t="n">
+        <v>-0.01246150065596085</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -4160,6 +7445,21 @@
       <c r="E220" t="n">
         <v>-0.005335126926544586</v>
       </c>
+      <c r="G220" t="n">
+        <v>71.78</v>
+      </c>
+      <c r="H220" t="n">
+        <v>-0.001360565183518837</v>
+      </c>
+      <c r="I220" t="n">
+        <v>-0.002265196320263106</v>
+      </c>
+      <c r="J220" t="n">
+        <v>-0.001266314378913057</v>
+      </c>
+      <c r="K220" t="n">
+        <v>-0.01239805403389263</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -4177,6 +7477,21 @@
       <c r="E221" t="n">
         <v>-0.005354109620918198</v>
       </c>
+      <c r="G221" t="n">
+        <v>72.11</v>
+      </c>
+      <c r="H221" t="n">
+        <v>-0.001342991260889528</v>
+      </c>
+      <c r="I221" t="n">
+        <v>-0.002272418899028278</v>
+      </c>
+      <c r="J221" t="n">
+        <v>-0.001149586597794345</v>
+      </c>
+      <c r="K221" t="n">
+        <v>-0.01244776913669332</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -4194,6 +7509,21 @@
       <c r="E222" t="n">
         <v>-0.005331325529315831</v>
       </c>
+      <c r="G222" t="n">
+        <v>72.44</v>
+      </c>
+      <c r="H222" t="n">
+        <v>-0.001357389946848598</v>
+      </c>
+      <c r="I222" t="n">
+        <v>-0.002263407494109568</v>
+      </c>
+      <c r="J222" t="n">
+        <v>-0.001260507698907148</v>
+      </c>
+      <c r="K222" t="n">
+        <v>-0.01238804353734954</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -4211,6 +7541,21 @@
       <c r="E223" t="n">
         <v>-0.005349610179147621</v>
       </c>
+      <c r="G223" t="n">
+        <v>72.77</v>
+      </c>
+      <c r="H223" t="n">
+        <v>-0.001342180695902729</v>
+      </c>
+      <c r="I223" t="n">
+        <v>-0.002269970820850527</v>
+      </c>
+      <c r="J223" t="n">
+        <v>-0.001164980450796911</v>
+      </c>
+      <c r="K223" t="n">
+        <v>-0.01243307753269013</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -4228,6 +7573,21 @@
       <c r="E224" t="n">
         <v>-0.005330993204680725</v>
       </c>
+      <c r="G224" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="H224" t="n">
+        <v>-0.001355968992257665</v>
+      </c>
+      <c r="I224" t="n">
+        <v>-0.0022619146340193</v>
+      </c>
+      <c r="J224" t="n">
+        <v>-0.001270295348292953</v>
+      </c>
+      <c r="K224" t="n">
+        <v>-0.01238062505608467</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -4245,6 +7605,21 @@
       <c r="E225" t="n">
         <v>-0.005348473898878134</v>
       </c>
+      <c r="G225" t="n">
+        <v>73.43000000000001</v>
+      </c>
+      <c r="H225" t="n">
+        <v>-0.001343142280249444</v>
+      </c>
+      <c r="I225" t="n">
+        <v>-0.002267966093748659</v>
+      </c>
+      <c r="J225" t="n">
+        <v>-0.001188810063541341</v>
+      </c>
+      <c r="K225" t="n">
+        <v>-0.01242080865289644</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -4262,6 +7637,21 @@
       <c r="E226" t="n">
         <v>-0.005332515989289657</v>
       </c>
+      <c r="G226" t="n">
+        <v>73.76000000000001</v>
+      </c>
+      <c r="H226" t="n">
+        <v>-0.001355408838459116</v>
+      </c>
+      <c r="I226" t="n">
+        <v>-0.002260505945182125</v>
+      </c>
+      <c r="J226" t="n">
+        <v>-0.001278381463230215</v>
+      </c>
+      <c r="K226" t="n">
+        <v>-0.01237350903514797</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -4279,6 +7669,21 @@
       <c r="E227" t="n">
         <v>-0.005347977018715253</v>
       </c>
+      <c r="G227" t="n">
+        <v>74.09</v>
+      </c>
+      <c r="H227" t="n">
+        <v>-0.00134357269506543</v>
+      </c>
+      <c r="I227" t="n">
+        <v>-0.002265726730390375</v>
+      </c>
+      <c r="J227" t="n">
+        <v>-0.001202752241937641</v>
+      </c>
+      <c r="K227" t="n">
+        <v>-0.01240745008529333</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -4296,6 +7701,21 @@
       <c r="E228" t="n">
         <v>-0.005334551951415395</v>
       </c>
+      <c r="G228" t="n">
+        <v>74.42</v>
+      </c>
+      <c r="H228" t="n">
+        <v>-0.001354274431658778</v>
+      </c>
+      <c r="I228" t="n">
+        <v>-0.002259163883785082</v>
+      </c>
+      <c r="J228" t="n">
+        <v>-0.001281781658183433</v>
+      </c>
+      <c r="K228" t="n">
+        <v>-0.01236653939690078</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -4313,6 +7733,21 @@
       <c r="E229" t="n">
         <v>-0.005346441113726895</v>
       </c>
+      <c r="G229" t="n">
+        <v>74.75</v>
+      </c>
+      <c r="H229" t="n">
+        <v>-0.001343733904284571</v>
+      </c>
+      <c r="I229" t="n">
+        <v>-0.002263466679848027</v>
+      </c>
+      <c r="J229" t="n">
+        <v>-0.001220400376412322</v>
+      </c>
+      <c r="K229" t="n">
+        <v>-0.01239242985994972</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -4330,6 +7765,21 @@
       <c r="E230" t="n">
         <v>-0.005335100024923538</v>
       </c>
+      <c r="G230" t="n">
+        <v>75.08</v>
+      </c>
+      <c r="H230" t="n">
+        <v>-0.00135179595245236</v>
+      </c>
+      <c r="I230" t="n">
+        <v>-0.002257563503019424</v>
+      </c>
+      <c r="J230" t="n">
+        <v>-0.001284333086689722</v>
+      </c>
+      <c r="K230" t="n">
+        <v>-0.01235661892359628</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -4347,6 +7797,21 @@
       <c r="E231" t="n">
         <v>-0.005342674311310793</v>
       </c>
+      <c r="G231" t="n">
+        <v>75.41</v>
+      </c>
+      <c r="H231" t="n">
+        <v>-0.001342144316391043</v>
+      </c>
+      <c r="I231" t="n">
+        <v>-0.002260488863134388</v>
+      </c>
+      <c r="J231" t="n">
+        <v>-0.001234247061638781</v>
+      </c>
+      <c r="K231" t="n">
+        <v>-0.01237320111757742</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -4364,6 +7829,21 @@
       <c r="E232" t="n">
         <v>-0.005333030918712782</v>
       </c>
+      <c r="G232" t="n">
+        <v>75.73999999999999</v>
+      </c>
+      <c r="H232" t="n">
+        <v>-0.001346980255587017</v>
+      </c>
+      <c r="I232" t="n">
+        <v>-0.002255001878264689</v>
+      </c>
+      <c r="J232" t="n">
+        <v>-0.001278311948351347</v>
+      </c>
+      <c r="K232" t="n">
+        <v>-0.01234256253982307</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -4381,6 +7861,21 @@
       <c r="E233" t="n">
         <v>-0.005337550638031477</v>
       </c>
+      <c r="G233" t="n">
+        <v>76.06999999999999</v>
+      </c>
+      <c r="H233" t="n">
+        <v>-0.001338764985695526</v>
+      </c>
+      <c r="I233" t="n">
+        <v>-0.00225670184596882</v>
+      </c>
+      <c r="J233" t="n">
+        <v>-0.00124400752510349</v>
+      </c>
+      <c r="K233" t="n">
+        <v>-0.01235043322633918</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -4398,6 +7893,21 @@
       <c r="E234" t="n">
         <v>-0.005331591218994601</v>
       </c>
+      <c r="G234" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="H234" t="n">
+        <v>-0.00134290621380979</v>
+      </c>
+      <c r="I234" t="n">
+        <v>-0.00225217167916318</v>
+      </c>
+      <c r="J234" t="n">
+        <v>-0.001284661373625003</v>
+      </c>
+      <c r="K234" t="n">
+        <v>-0.01232647631094034</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -4415,6 +7925,21 @@
       <c r="E235" t="n">
         <v>-0.005333595256190049</v>
       </c>
+      <c r="G235" t="n">
+        <v>76.73</v>
+      </c>
+      <c r="H235" t="n">
+        <v>-0.001336158322708349</v>
+      </c>
+      <c r="I235" t="n">
+        <v>-0.002253199865339144</v>
+      </c>
+      <c r="J235" t="n">
+        <v>-0.001260913835371769</v>
+      </c>
+      <c r="K235" t="n">
+        <v>-0.01232891380046578</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -4432,6 +7957,21 @@
       <c r="E236" t="n">
         <v>-0.005329731052865961</v>
       </c>
+      <c r="G236" t="n">
+        <v>77.06</v>
+      </c>
+      <c r="H236" t="n">
+        <v>-0.00133792177981</v>
+      </c>
+      <c r="I236" t="n">
+        <v>-0.002249152691452069</v>
+      </c>
+      <c r="J236" t="n">
+        <v>-0.001280255973340153</v>
+      </c>
+      <c r="K236" t="n">
+        <v>-0.01230957413329403</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -4449,6 +7989,21 @@
       <c r="E237" t="n">
         <v>-0.005329480802238813</v>
       </c>
+      <c r="G237" t="n">
+        <v>77.39</v>
+      </c>
+      <c r="H237" t="n">
+        <v>-0.001332639717220821</v>
+      </c>
+      <c r="I237" t="n">
+        <v>-0.002249071571508367</v>
+      </c>
+      <c r="J237" t="n">
+        <v>-0.001263970509145614</v>
+      </c>
+      <c r="K237" t="n">
+        <v>-0.01230382350741467</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -4466,6 +8021,21 @@
       <c r="E238" t="n">
         <v>-0.005328415478922112</v>
       </c>
+      <c r="G238" t="n">
+        <v>77.72</v>
+      </c>
+      <c r="H238" t="n">
+        <v>-0.001333381942299724</v>
+      </c>
+      <c r="I238" t="n">
+        <v>-0.002245741268363387</v>
+      </c>
+      <c r="J238" t="n">
+        <v>-0.001276025806831284</v>
+      </c>
+      <c r="K238" t="n">
+        <v>-0.01229032645888868</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -4483,6 +8053,21 @@
       <c r="E239" t="n">
         <v>-0.005325928707001261</v>
       </c>
+      <c r="G239" t="n">
+        <v>78.05</v>
+      </c>
+      <c r="H239" t="n">
+        <v>-0.001330692893301871</v>
+      </c>
+      <c r="I239" t="n">
+        <v>-0.00224479906601903</v>
+      </c>
+      <c r="J239" t="n">
+        <v>-0.001282554578584253</v>
+      </c>
+      <c r="K239" t="n">
+        <v>-0.01227800679072168</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -4500,6 +8085,21 @@
       <c r="E240" t="n">
         <v>-0.005327856271184456</v>
       </c>
+      <c r="G240" t="n">
+        <v>78.38</v>
+      </c>
+      <c r="H240" t="n">
+        <v>-0.001330467708273186</v>
+      </c>
+      <c r="I240" t="n">
+        <v>-0.002242352871640648</v>
+      </c>
+      <c r="J240" t="n">
+        <v>-0.001288588085758683</v>
+      </c>
+      <c r="K240" t="n">
+        <v>-0.0122713787952968</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -4517,6 +8117,21 @@
       <c r="E241" t="n">
         <v>-0.005321995609230384</v>
       </c>
+      <c r="G241" t="n">
+        <v>78.70999999999999</v>
+      </c>
+      <c r="H241" t="n">
+        <v>-0.001329406525528207</v>
+      </c>
+      <c r="I241" t="n">
+        <v>-0.002240512004243896</v>
+      </c>
+      <c r="J241" t="n">
+        <v>-0.001306535358165872</v>
+      </c>
+      <c r="K241" t="n">
+        <v>-0.01225354847020609</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -4534,6 +8149,21 @@
       <c r="E242" t="n">
         <v>-0.005325825652062343</v>
       </c>
+      <c r="G242" t="n">
+        <v>79.04000000000001</v>
+      </c>
+      <c r="H242" t="n">
+        <v>-0.001326708180629458</v>
+      </c>
+      <c r="I242" t="n">
+        <v>-0.002238261294988342</v>
+      </c>
+      <c r="J242" t="n">
+        <v>-0.00129225608790387</v>
+      </c>
+      <c r="K242" t="n">
+        <v>-0.01225123611365823</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -4551,6 +8181,21 @@
       <c r="E243" t="n">
         <v>-0.005317943126700605</v>
       </c>
+      <c r="G243" t="n">
+        <v>79.37</v>
+      </c>
+      <c r="H243" t="n">
+        <v>-0.001327556331928479</v>
+      </c>
+      <c r="I243" t="n">
+        <v>-0.0022352003836302</v>
+      </c>
+      <c r="J243" t="n">
+        <v>-0.001322850233715679</v>
+      </c>
+      <c r="K243" t="n">
+        <v>-0.01222540269413401</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -4568,6 +8213,21 @@
       <c r="E244" t="n">
         <v>-0.005325136173027378</v>
       </c>
+      <c r="G244" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="H244" t="n">
+        <v>-0.001323351378956043</v>
+      </c>
+      <c r="I244" t="n">
+        <v>-0.002233981443155919</v>
+      </c>
+      <c r="J244" t="n">
+        <v>-0.001296910485053079</v>
+      </c>
+      <c r="K244" t="n">
+        <v>-0.01223134690079179</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -4585,6 +8245,21 @@
       <c r="E245" t="n">
         <v>-0.005314569626444679</v>
       </c>
+      <c r="G245" t="n">
+        <v>80.03</v>
+      </c>
+      <c r="H245" t="n">
+        <v>-0.001325755439995654</v>
+      </c>
+      <c r="I245" t="n">
+        <v>-0.002229728353986736</v>
+      </c>
+      <c r="J245" t="n">
+        <v>-0.001342056787841117</v>
+      </c>
+      <c r="K245" t="n">
+        <v>-0.01219655673880897</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -4602,6 +8277,21 @@
       <c r="E246" t="n">
         <v>-0.00532397609197785</v>
       </c>
+      <c r="G246" t="n">
+        <v>80.36</v>
+      </c>
+      <c r="H246" t="n">
+        <v>-0.001320118668183939</v>
+      </c>
+      <c r="I246" t="n">
+        <v>-0.002228964522421121</v>
+      </c>
+      <c r="J246" t="n">
+        <v>-0.001305972815555402</v>
+      </c>
+      <c r="K246" t="n">
+        <v>-0.01220697178422518</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -4619,6 +8309,21 @@
       <c r="E247" t="n">
         <v>-0.005310533920057542</v>
       </c>
+      <c r="G247" t="n">
+        <v>80.69</v>
+      </c>
+      <c r="H247" t="n">
+        <v>-0.001324322746192763</v>
+      </c>
+      <c r="I247" t="n">
+        <v>-0.002223533961560422</v>
+      </c>
+      <c r="J247" t="n">
+        <v>-0.001364184879841473</v>
+      </c>
+      <c r="K247" t="n">
+        <v>-0.01216409464910685</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -4636,6 +8341,21 @@
       <c r="E248" t="n">
         <v>-0.005321743198781807</v>
       </c>
+      <c r="G248" t="n">
+        <v>81.02</v>
+      </c>
+      <c r="H248" t="n">
+        <v>-0.001317266638612719</v>
+      </c>
+      <c r="I248" t="n">
+        <v>-0.002223181039346853</v>
+      </c>
+      <c r="J248" t="n">
+        <v>-0.00131926644859081</v>
+      </c>
+      <c r="K248" t="n">
+        <v>-0.01217839280705564</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -4653,6 +8373,21 @@
       <c r="E249" t="n">
         <v>-0.005304803938897502</v>
       </c>
+      <c r="G249" t="n">
+        <v>81.34999999999999</v>
+      </c>
+      <c r="H249" t="n">
+        <v>-0.001322087266548605</v>
+      </c>
+      <c r="I249" t="n">
+        <v>-0.002216614703408579</v>
+      </c>
+      <c r="J249" t="n">
+        <v>-0.001385612184242181</v>
+      </c>
+      <c r="K249" t="n">
+        <v>-0.01212780072217681</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -4670,6 +8405,21 @@
       <c r="E250" t="n">
         <v>-0.005315930096215352</v>
       </c>
+      <c r="G250" t="n">
+        <v>81.68000000000001</v>
+      </c>
+      <c r="H250" t="n">
+        <v>-0.001311883818294979</v>
+      </c>
+      <c r="I250" t="n">
+        <v>-0.002216525739616851</v>
+      </c>
+      <c r="J250" t="n">
+        <v>-0.001322123367230639</v>
+      </c>
+      <c r="K250" t="n">
+        <v>-0.01214528680728557</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -4687,6 +8437,21 @@
       <c r="E251" t="n">
         <v>-0.005295041289575429</v>
       </c>
+      <c r="G251" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="H251" t="n">
+        <v>-0.001317057306180397</v>
+      </c>
+      <c r="I251" t="n">
+        <v>-0.002208482264931125</v>
+      </c>
+      <c r="J251" t="n">
+        <v>-0.00139750094717158</v>
+      </c>
+      <c r="K251" t="n">
+        <v>-0.01208478076238291</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -4704,6 +8469,21 @@
       <c r="E252" t="n">
         <v>-0.005308595109492813</v>
       </c>
+      <c r="G252" t="n">
+        <v>82.34</v>
+      </c>
+      <c r="H252" t="n">
+        <v>-0.001303991500468465</v>
+      </c>
+      <c r="I252" t="n">
+        <v>-0.002208462135495804</v>
+      </c>
+      <c r="J252" t="n">
+        <v>-0.001318013887781782</v>
+      </c>
+      <c r="K252" t="n">
+        <v>-0.01210495506181072</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -4721,6 +8501,21 @@
       <c r="E253" t="n">
         <v>-0.005285767804384614</v>
       </c>
+      <c r="G253" t="n">
+        <v>82.67</v>
+      </c>
+      <c r="H253" t="n">
+        <v>-0.001310080611823707</v>
+      </c>
+      <c r="I253" t="n">
+        <v>-0.002198948219211719</v>
+      </c>
+      <c r="J253" t="n">
+        <v>-0.001402709138347262</v>
+      </c>
+      <c r="K253" t="n">
+        <v>-0.01203612459266333</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -4738,6 +8533,21 @@
       <c r="E254" t="n">
         <v>-0.005301814077562312</v>
       </c>
+      <c r="G254" t="n">
+        <v>83</v>
+      </c>
+      <c r="H254" t="n">
+        <v>-0.001296114645185608</v>
+      </c>
+      <c r="I254" t="n">
+        <v>-0.002199176927533775</v>
+      </c>
+      <c r="J254" t="n">
+        <v>-0.001317201342562412</v>
+      </c>
+      <c r="K254" t="n">
+        <v>-0.01205926992878499</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -4755,6 +8565,21 @@
       <c r="E255" t="n">
         <v>-0.005277578929776221</v>
       </c>
+      <c r="G255" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="H255" t="n">
+        <v>-0.001304510175671987</v>
+      </c>
+      <c r="I255" t="n">
+        <v>-0.002188713712677071</v>
+      </c>
+      <c r="J255" t="n">
+        <v>-0.00141931368183177</v>
+      </c>
+      <c r="K255" t="n">
+        <v>-0.01198369018920724</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -4772,6 +8597,21 @@
       <c r="E256" t="n">
         <v>-0.005296648328128221</v>
       </c>
+      <c r="G256" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="H256" t="n">
+        <v>-0.001290614738390761</v>
+      </c>
+      <c r="I256" t="n">
+        <v>-0.002189272612262416</v>
+      </c>
+      <c r="J256" t="n">
+        <v>-0.001334868155484189</v>
+      </c>
+      <c r="K256" t="n">
+        <v>-0.01201029277500513</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -4789,6 +8629,21 @@
       <c r="E257" t="n">
         <v>-0.005270318670280868</v>
       </c>
+      <c r="G257" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="H257" t="n">
+        <v>-0.001299091598320572</v>
+      </c>
+      <c r="I257" t="n">
+        <v>-0.002177526547597378</v>
+      </c>
+      <c r="J257" t="n">
+        <v>-0.001438420067848766</v>
+      </c>
+      <c r="K257" t="n">
+        <v>-0.01192705241058583</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -4806,6 +8661,21 @@
       <c r="E258" t="n">
         <v>-0.00528831765911069</v>
       </c>
+      <c r="G258" t="n">
+        <v>84.31999999999999</v>
+      </c>
+      <c r="H258" t="n">
+        <v>-0.001283456547171932</v>
+      </c>
+      <c r="I258" t="n">
+        <v>-0.002177766481004784</v>
+      </c>
+      <c r="J258" t="n">
+        <v>-0.001341134043148406</v>
+      </c>
+      <c r="K258" t="n">
+        <v>-0.01195333242005999</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -4823,6 +8693,21 @@
       <c r="E259" t="n">
         <v>-0.005260252830922314</v>
       </c>
+      <c r="G259" t="n">
+        <v>84.65000000000001</v>
+      </c>
+      <c r="H259" t="n">
+        <v>-0.001294060996267381</v>
+      </c>
+      <c r="I259" t="n">
+        <v>-0.002165204306194846</v>
+      </c>
+      <c r="J259" t="n">
+        <v>-0.001458986005862232</v>
+      </c>
+      <c r="K259" t="n">
+        <v>-0.0118653474884981</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -4840,6 +8725,21 @@
       <c r="E260" t="n">
         <v>-0.005278017540799021</v>
       </c>
+      <c r="G260" t="n">
+        <v>84.98</v>
+      </c>
+      <c r="H260" t="n">
+        <v>-0.001276979747285149</v>
+      </c>
+      <c r="I260" t="n">
+        <v>-0.002165490022190124</v>
+      </c>
+      <c r="J260" t="n">
+        <v>-0.001352026387931401</v>
+      </c>
+      <c r="K260" t="n">
+        <v>-0.01189374647130265</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -4857,6 +8757,21 @@
       <c r="E261" t="n">
         <v>-0.005246837150197119</v>
       </c>
+      <c r="G261" t="n">
+        <v>85.31</v>
+      </c>
+      <c r="H261" t="n">
+        <v>-0.001287450487026638</v>
+      </c>
+      <c r="I261" t="n">
+        <v>-0.002151657452874268</v>
+      </c>
+      <c r="J261" t="n">
+        <v>-0.00147169818767205</v>
+      </c>
+      <c r="K261" t="n">
+        <v>-0.01179997766116356</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -4874,6 +8789,21 @@
       <c r="E262" t="n">
         <v>-0.005267403790272581</v>
       </c>
+      <c r="G262" t="n">
+        <v>85.64</v>
+      </c>
+      <c r="H262" t="n">
+        <v>-0.00126958466542099</v>
+      </c>
+      <c r="I262" t="n">
+        <v>-0.002151689647598307</v>
+      </c>
+      <c r="J262" t="n">
+        <v>-0.001361233337238917</v>
+      </c>
+      <c r="K262" t="n">
+        <v>-0.01182946053319759</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -4891,6 +8821,21 @@
       <c r="E263" t="n">
         <v>-0.005235013853529174</v>
       </c>
+      <c r="G263" t="n">
+        <v>85.97</v>
+      </c>
+      <c r="H263" t="n">
+        <v>-0.001281937344011139</v>
+      </c>
+      <c r="I263" t="n">
+        <v>-0.00213661653261429</v>
+      </c>
+      <c r="J263" t="n">
+        <v>-0.001496583517603426</v>
+      </c>
+      <c r="K263" t="n">
+        <v>-0.01172794522109137</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -4908,6 +8853,21 @@
       <c r="E264" t="n">
         <v>-0.005256503562989488</v>
       </c>
+      <c r="G264" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="H264" t="n">
+        <v>-0.001263877796413731</v>
+      </c>
+      <c r="I264" t="n">
+        <v>-0.002136539592936864</v>
+      </c>
+      <c r="J264" t="n">
+        <v>-0.001386008987440458</v>
+      </c>
+      <c r="K264" t="n">
+        <v>-0.0117584783842623</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -4925,6 +8885,21 @@
       <c r="E265" t="n">
         <v>-0.005223189717824486</v>
       </c>
+      <c r="G265" t="n">
+        <v>86.63</v>
+      </c>
+      <c r="H265" t="n">
+        <v>-0.001276883953945506</v>
+      </c>
+      <c r="I265" t="n">
+        <v>-0.002120076062366764</v>
+      </c>
+      <c r="J265" t="n">
+        <v>-0.001526560700420821</v>
+      </c>
+      <c r="K265" t="n">
+        <v>-0.01165017430642952</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -4942,6 +8917,21 @@
       <c r="E266" t="n">
         <v>-0.005245173506249021</v>
       </c>
+      <c r="G266" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="H266" t="n">
+        <v>-0.001256912043222607</v>
+      </c>
+      <c r="I266" t="n">
+        <v>-0.002119079229227919</v>
+      </c>
+      <c r="J266" t="n">
+        <v>-0.001401885753931548</v>
+      </c>
+      <c r="K266" t="n">
+        <v>-0.01167841004755314</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -4959,6 +8949,21 @@
       <c r="E267" t="n">
         <v>-0.005210486956998112</v>
       </c>
+      <c r="G267" t="n">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="H267" t="n">
+        <v>-0.001270258722498312</v>
+      </c>
+      <c r="I267" t="n">
+        <v>-0.002101251984334955</v>
+      </c>
+      <c r="J267" t="n">
+        <v>-0.001544336046856143</v>
+      </c>
+      <c r="K267" t="n">
+        <v>-0.01156354299393275</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -4976,6 +8981,21 @@
       <c r="E268" t="n">
         <v>-0.005232902860527023</v>
       </c>
+      <c r="G268" t="n">
+        <v>87.62</v>
+      </c>
+      <c r="H268" t="n">
+        <v>-0.001250263793830558</v>
+      </c>
+      <c r="I268" t="n">
+        <v>-0.002099809588630871</v>
+      </c>
+      <c r="J268" t="n">
+        <v>-0.001421107157448405</v>
+      </c>
+      <c r="K268" t="n">
+        <v>-0.01159035831831012</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -4993,6 +9013,21 @@
       <c r="E269" t="n">
         <v>-0.005195369254054799</v>
       </c>
+      <c r="G269" t="n">
+        <v>87.95</v>
+      </c>
+      <c r="H269" t="n">
+        <v>-0.001263637523515212</v>
+      </c>
+      <c r="I269" t="n">
+        <v>-0.002080551858265709</v>
+      </c>
+      <c r="J269" t="n">
+        <v>-0.001570596874826921</v>
+      </c>
+      <c r="K269" t="n">
+        <v>-0.01146744341619883</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -5010,6 +9045,21 @@
       <c r="E270" t="n">
         <v>-0.005215779298982378</v>
       </c>
+      <c r="G270" t="n">
+        <v>88.28</v>
+      </c>
+      <c r="H270" t="n">
+        <v>-0.001241958716882686</v>
+      </c>
+      <c r="I270" t="n">
+        <v>-0.002077884523940729</v>
+      </c>
+      <c r="J270" t="n">
+        <v>-0.001442920281247423</v>
+      </c>
+      <c r="K270" t="n">
+        <v>-0.01148868068488481</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -5027,6 +9077,21 @@
       <c r="E271" t="n">
         <v>-0.005174266237056268</v>
       </c>
+      <c r="G271" t="n">
+        <v>88.61</v>
+      </c>
+      <c r="H271" t="n">
+        <v>-0.001255020001675372</v>
+      </c>
+      <c r="I271" t="n">
+        <v>-0.002056790347630051</v>
+      </c>
+      <c r="J271" t="n">
+        <v>-0.001597563706173052</v>
+      </c>
+      <c r="K271" t="n">
+        <v>-0.01135629732081933</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -5044,6 +9109,21 @@
       <c r="E272" t="n">
         <v>-0.005195408492796635</v>
       </c>
+      <c r="G272" t="n">
+        <v>88.94</v>
+      </c>
+      <c r="H272" t="n">
+        <v>-0.001231667039817832</v>
+      </c>
+      <c r="I272" t="n">
+        <v>-0.002053061968347205</v>
+      </c>
+      <c r="J272" t="n">
+        <v>-0.001466370606214541</v>
+      </c>
+      <c r="K272" t="n">
+        <v>-0.01137260689343597</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -5061,6 +9141,21 @@
       <c r="E273" t="n">
         <v>-0.005152422434175121</v>
       </c>
+      <c r="G273" t="n">
+        <v>89.27</v>
+      </c>
+      <c r="H273" t="n">
+        <v>-0.001244070988883992</v>
+      </c>
+      <c r="I273" t="n">
+        <v>-0.00203037692654586</v>
+      </c>
+      <c r="J273" t="n">
+        <v>-0.001626721554099419</v>
+      </c>
+      <c r="K273" t="n">
+        <v>-0.01123057264465695</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -5078,6 +9173,21 @@
       <c r="E274" t="n">
         <v>-0.005173520153753581</v>
       </c>
+      <c r="G274" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="H274" t="n">
+        <v>-0.001220200300390216</v>
+      </c>
+      <c r="I274" t="n">
+        <v>-0.002025203084837278</v>
+      </c>
+      <c r="J274" t="n">
+        <v>-0.001498191031906626</v>
+      </c>
+      <c r="K274" t="n">
+        <v>-0.01123920640887727</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -5095,6 +9205,21 @@
       <c r="E275" t="n">
         <v>-0.005128911235465474</v>
       </c>
+      <c r="G275" t="n">
+        <v>89.93000000000001</v>
+      </c>
+      <c r="H275" t="n">
+        <v>-0.001232175602516105</v>
+      </c>
+      <c r="I275" t="n">
+        <v>-0.00200093090735427</v>
+      </c>
+      <c r="J275" t="n">
+        <v>-0.001661181337573457</v>
+      </c>
+      <c r="K275" t="n">
+        <v>-0.01108872160971425</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -5112,6 +9237,21 @@
       <c r="E276" t="n">
         <v>-0.005148628658842044</v>
       </c>
+      <c r="G276" t="n">
+        <v>90.26000000000001</v>
+      </c>
+      <c r="H276" t="n">
+        <v>-0.001207815244440497</v>
+      </c>
+      <c r="I276" t="n">
+        <v>-0.001994025552745447</v>
+      </c>
+      <c r="J276" t="n">
+        <v>-0.001537353286801557</v>
+      </c>
+      <c r="K276" t="n">
+        <v>-0.0110887150328716</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -5129,6 +9269,21 @@
       <c r="E277" t="n">
         <v>-0.005101970252484842</v>
       </c>
+      <c r="G277" t="n">
+        <v>90.59</v>
+      </c>
+      <c r="H277" t="n">
+        <v>-0.001218598390980735</v>
+      </c>
+      <c r="I277" t="n">
+        <v>-0.001967893150595414</v>
+      </c>
+      <c r="J277" t="n">
+        <v>-0.001699849155787847</v>
+      </c>
+      <c r="K277" t="n">
+        <v>-0.01092975470753226</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -5146,6 +9301,21 @@
       <c r="E278" t="n">
         <v>-0.005118605657381231</v>
       </c>
+      <c r="G278" t="n">
+        <v>90.92</v>
+      </c>
+      <c r="H278" t="n">
+        <v>-0.001193517402747744</v>
+      </c>
+      <c r="I278" t="n">
+        <v>-0.001958897579985186</v>
+      </c>
+      <c r="J278" t="n">
+        <v>-0.001573822851759218</v>
+      </c>
+      <c r="K278" t="n">
+        <v>-0.01092066937984637</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -5163,6 +9333,21 @@
       <c r="E279" t="n">
         <v>-0.005069209454640781</v>
       </c>
+      <c r="G279" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="H279" t="n">
+        <v>-0.001205113475094839</v>
+      </c>
+      <c r="I279" t="n">
+        <v>-0.001930691842104658</v>
+      </c>
+      <c r="J279" t="n">
+        <v>-0.001744179479622542</v>
+      </c>
+      <c r="K279" t="n">
+        <v>-0.01075292272007521</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -5180,6 +9365,21 @@
       <c r="E280" t="n">
         <v>-0.005082406070215171</v>
       </c>
+      <c r="G280" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="H280" t="n">
+        <v>-0.001178914606080767</v>
+      </c>
+      <c r="I280" t="n">
+        <v>-0.001919753571678064</v>
+      </c>
+      <c r="J280" t="n">
+        <v>-0.001623606018450704</v>
+      </c>
+      <c r="K280" t="n">
+        <v>-0.0107328008741609</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -5197,6 +9397,21 @@
       <c r="E281" t="n">
         <v>-0.005029800268562798</v>
       </c>
+      <c r="G281" t="n">
+        <v>91.91</v>
+      </c>
+      <c r="H281" t="n">
+        <v>-0.001189018980392978</v>
+      </c>
+      <c r="I281" t="n">
+        <v>-0.001889067049920382</v>
+      </c>
+      <c r="J281" t="n">
+        <v>-0.001794559918571072</v>
+      </c>
+      <c r="K281" t="n">
+        <v>-0.01055244063467722</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -5214,6 +9429,21 @@
       <c r="E282" t="n">
         <v>-0.005040025406530271</v>
       </c>
+      <c r="G282" t="n">
+        <v>92.23999999999999</v>
+      </c>
+      <c r="H282" t="n">
+        <v>-0.001162298448256683</v>
+      </c>
+      <c r="I282" t="n">
+        <v>-0.001875336744062659</v>
+      </c>
+      <c r="J282" t="n">
+        <v>-0.001677907693842744</v>
+      </c>
+      <c r="K282" t="n">
+        <v>-0.01052112195606885</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -5231,6 +9461,21 @@
       <c r="E283" t="n">
         <v>-0.00498619441895989</v>
       </c>
+      <c r="G283" t="n">
+        <v>92.56999999999999</v>
+      </c>
+      <c r="H283" t="n">
+        <v>-0.001174178592937109</v>
+      </c>
+      <c r="I283" t="n">
+        <v>-0.001841605729563207</v>
+      </c>
+      <c r="J283" t="n">
+        <v>-0.001861146190490516</v>
+      </c>
+      <c r="K283" t="n">
+        <v>-0.01032822003682691</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -5248,6 +9493,21 @@
       <c r="E284" t="n">
         <v>-0.004992473154875158</v>
       </c>
+      <c r="G284" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="H284" t="n">
+        <v>-0.001147898260151923</v>
+      </c>
+      <c r="I284" t="n">
+        <v>-0.001825041888226059</v>
+      </c>
+      <c r="J284" t="n">
+        <v>-0.001757759135438759</v>
+      </c>
+      <c r="K284" t="n">
+        <v>-0.01028349957556826</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -5265,6 +9525,21 @@
       <c r="E285" t="n">
         <v>-0.004935216006139573</v>
       </c>
+      <c r="G285" t="n">
+        <v>93.23</v>
+      </c>
+      <c r="H285" t="n">
+        <v>-0.001158493682223888</v>
+      </c>
+      <c r="I285" t="n">
+        <v>-0.001787646696829511</v>
+      </c>
+      <c r="J285" t="n">
+        <v>-0.001946293834744009</v>
+      </c>
+      <c r="K285" t="n">
+        <v>-0.0100732879805025</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -5282,6 +9557,21 @@
       <c r="E286" t="n">
         <v>-0.004935580852693684</v>
       </c>
+      <c r="G286" t="n">
+        <v>93.56</v>
+      </c>
+      <c r="H286" t="n">
+        <v>-0.001129182309990661</v>
+      </c>
+      <c r="I286" t="n">
+        <v>-0.00176762388427621</v>
+      </c>
+      <c r="J286" t="n">
+        <v>-0.001840480792591175</v>
+      </c>
+      <c r="K286" t="n">
+        <v>-0.0100106049213163</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -5299,6 +9589,21 @@
       <c r="E287" t="n">
         <v>-0.004872927688194568</v>
       </c>
+      <c r="G287" t="n">
+        <v>93.89</v>
+      </c>
+      <c r="H287" t="n">
+        <v>-0.001138154627759171</v>
+      </c>
+      <c r="I287" t="n">
+        <v>-0.001726417642692006</v>
+      </c>
+      <c r="J287" t="n">
+        <v>-0.00204096688432231</v>
+      </c>
+      <c r="K287" t="n">
+        <v>-0.009781068994694934</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -5316,6 +9621,21 @@
       <c r="E288" t="n">
         <v>-0.004866398355266223</v>
       </c>
+      <c r="G288" t="n">
+        <v>94.22</v>
+      </c>
+      <c r="H288" t="n">
+        <v>-0.001106385602233636</v>
+      </c>
+      <c r="I288" t="n">
+        <v>-0.001702550715162809</v>
+      </c>
+      <c r="J288" t="n">
+        <v>-0.001942863295584617</v>
+      </c>
+      <c r="K288" t="n">
+        <v>-0.009697943463948491</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -5333,6 +9653,21 @@
       <c r="E289" t="n">
         <v>-0.004793176005728167</v>
       </c>
+      <c r="G289" t="n">
+        <v>94.55</v>
+      </c>
+      <c r="H289" t="n">
+        <v>-0.001113263182067719</v>
+      </c>
+      <c r="I289" t="n">
+        <v>-0.001656354524065404</v>
+      </c>
+      <c r="J289" t="n">
+        <v>-0.002154996894572127</v>
+      </c>
+      <c r="K289" t="n">
+        <v>-0.009443622502607722</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -5350,6 +9685,21 @@
       <c r="E290" t="n">
         <v>-0.004775802151956099</v>
       </c>
+      <c r="G290" t="n">
+        <v>94.88</v>
+      </c>
+      <c r="H290" t="n">
+        <v>-0.001079339949311058</v>
+      </c>
+      <c r="I290" t="n">
+        <v>-0.001626119491856586</v>
+      </c>
+      <c r="J290" t="n">
+        <v>-0.002060290836093336</v>
+      </c>
+      <c r="K290" t="n">
+        <v>-0.009337978245675888</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -5367,6 +9717,21 @@
       <c r="E291" t="n">
         <v>-0.004692251877429557</v>
       </c>
+      <c r="G291" t="n">
+        <v>95.20999999999999</v>
+      </c>
+      <c r="H291" t="n">
+        <v>-0.001086728513667664</v>
+      </c>
+      <c r="I291" t="n">
+        <v>-0.001571512728106106</v>
+      </c>
+      <c r="J291" t="n">
+        <v>-0.002273693940046573</v>
+      </c>
+      <c r="K291" t="n">
+        <v>-0.009061443132912579</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -5384,6 +9749,21 @@
       <c r="E292" t="n">
         <v>-0.004665205467098238</v>
       </c>
+      <c r="G292" t="n">
+        <v>95.54000000000001</v>
+      </c>
+      <c r="H292" t="n">
+        <v>-0.001050614811982683</v>
+      </c>
+      <c r="I292" t="n">
+        <v>-0.001533790653137941</v>
+      </c>
+      <c r="J292" t="n">
+        <v>-0.002171164199225669</v>
+      </c>
+      <c r="K292" t="n">
+        <v>-0.008934907204304563</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -5401,6 +9781,21 @@
       <c r="E293" t="n">
         <v>-0.004574250705004506</v>
       </c>
+      <c r="G293" t="n">
+        <v>95.87</v>
+      </c>
+      <c r="H293" t="n">
+        <v>-0.001056002040676753</v>
+      </c>
+      <c r="I293" t="n">
+        <v>-0.001471044554543516</v>
+      </c>
+      <c r="J293" t="n">
+        <v>-0.0023865474504169</v>
+      </c>
+      <c r="K293" t="n">
+        <v>-0.008634345585780523</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -5418,6 +9813,21 @@
       <c r="E294" t="n">
         <v>-0.004539305149620274</v>
       </c>
+      <c r="G294" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="H294" t="n">
+        <v>-0.00101555715174982</v>
+      </c>
+      <c r="I294" t="n">
+        <v>-0.001427225390987182</v>
+      </c>
+      <c r="J294" t="n">
+        <v>-0.002272202665451448</v>
+      </c>
+      <c r="K294" t="n">
+        <v>-0.00848416565299036</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -5435,6 +9845,21 @@
       <c r="E295" t="n">
         <v>-0.004437547569639716</v>
       </c>
+      <c r="G295" t="n">
+        <v>96.53</v>
+      </c>
+      <c r="H295" t="n">
+        <v>-0.001013483840044236</v>
+      </c>
+      <c r="I295" t="n">
+        <v>-0.001359249510292834</v>
+      </c>
+      <c r="J295" t="n">
+        <v>-0.00250746186261346</v>
+      </c>
+      <c r="K295" t="n">
+        <v>-0.008152062894750414</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -5452,6 +9877,21 @@
       <c r="E296" t="n">
         <v>-0.004386739027564328</v>
       </c>
+      <c r="G296" t="n">
+        <v>96.86</v>
+      </c>
+      <c r="H296" t="n">
+        <v>-0.0009604948087246023</v>
+      </c>
+      <c r="I296" t="n">
+        <v>-0.00131242451198122</v>
+      </c>
+      <c r="J296" t="n">
+        <v>-0.002436511040544363</v>
+      </c>
+      <c r="K296" t="n">
+        <v>-0.00796651108515919</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -5469,6 +9909,21 @@
       <c r="E297" t="n">
         <v>-0.004265006494536953</v>
       </c>
+      <c r="G297" t="n">
+        <v>97.19</v>
+      </c>
+      <c r="H297" t="n">
+        <v>-0.0009469238213443414</v>
+      </c>
+      <c r="I297" t="n">
+        <v>-0.001239396437240984</v>
+      </c>
+      <c r="J297" t="n">
+        <v>-0.002696381818085079</v>
+      </c>
+      <c r="K297" t="n">
+        <v>-0.007605086839158248</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -5486,6 +9941,21 @@
       <c r="E298" t="n">
         <v>-0.004199892362524121</v>
       </c>
+      <c r="G298" t="n">
+        <v>97.52</v>
+      </c>
+      <c r="H298" t="n">
+        <v>-0.0008765934667165923</v>
+      </c>
+      <c r="I298" t="n">
+        <v>-0.001184268152332824</v>
+      </c>
+      <c r="J298" t="n">
+        <v>-0.002605695903533115</v>
+      </c>
+      <c r="K298" t="n">
+        <v>-0.007399380893017436</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -5503,6 +9973,21 @@
       <c r="E299" t="n">
         <v>-0.004062158437527296</v>
       </c>
+      <c r="G299" t="n">
+        <v>97.84999999999999</v>
+      </c>
+      <c r="H299" t="n">
+        <v>-0.0008287159974107121</v>
+      </c>
+      <c r="I299" t="n">
+        <v>-0.001098707378873472</v>
+      </c>
+      <c r="J299" t="n">
+        <v>-0.00280053156993284</v>
+      </c>
+      <c r="K299" t="n">
+        <v>-0.007024519510234532</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -5520,6 +10005,21 @@
       <c r="E300" t="n">
         <v>-0.00401334093230593</v>
       </c>
+      <c r="G300" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="H300" t="n">
+        <v>-0.0007066243770409164</v>
+      </c>
+      <c r="I300" t="n">
+        <v>-0.001019908795771819</v>
+      </c>
+      <c r="J300" t="n">
+        <v>-0.002499567022122828</v>
+      </c>
+      <c r="K300" t="n">
+        <v>-0.006827136936604316</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -5537,6 +10037,21 @@
       <c r="E301" t="n">
         <v>-0.003942384232908833</v>
       </c>
+      <c r="G301" t="n">
+        <v>98.51000000000001</v>
+      </c>
+      <c r="H301" t="n">
+        <v>-0.0006079766500210265</v>
+      </c>
+      <c r="I301" t="n">
+        <v>-0.0008862592126643758</v>
+      </c>
+      <c r="J301" t="n">
+        <v>-0.002234924798149933</v>
+      </c>
+      <c r="K301" t="n">
+        <v>-0.00654500019355913</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -5554,6 +10069,21 @@
       <c r="E302" t="n">
         <v>-0.003959232264382769</v>
       </c>
+      <c r="G302" t="n">
+        <v>98.84</v>
+      </c>
+      <c r="H302" t="n">
+        <v>-0.0005244087674775876</v>
+      </c>
+      <c r="I302" t="n">
+        <v>-0.000725030700430385</v>
+      </c>
+      <c r="J302" t="n">
+        <v>-0.001580677468745458</v>
+      </c>
+      <c r="K302" t="n">
+        <v>-0.006564929775334068</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -5571,6 +10101,21 @@
       <c r="E303" t="n">
         <v>-0.003974423530216749</v>
       </c>
+      <c r="G303" t="n">
+        <v>99.17</v>
+      </c>
+      <c r="H303" t="n">
+        <v>-0.0007307809199246436</v>
+      </c>
+      <c r="I303" t="n">
+        <v>-0.0004782827367904485</v>
+      </c>
+      <c r="J303" t="n">
+        <v>-0.002256024954171801</v>
+      </c>
+      <c r="K303" t="n">
+        <v>-0.006805446133284001</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -5588,6 +10133,21 @@
       <c r="E304" t="n">
         <v>-0.004468494694545576</v>
       </c>
+      <c r="G304" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="H304" t="n">
+        <v>-0.001111051184894424</v>
+      </c>
+      <c r="I304" t="n">
+        <v>-0.000236348936567293</v>
+      </c>
+      <c r="J304" t="n">
+        <v>-0.003582128754794947</v>
+      </c>
+      <c r="K304" t="n">
+        <v>-0.007761971526376243</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -5604,6 +10164,21 @@
       </c>
       <c r="E305" t="n">
         <v>-0.00555721252079637</v>
+      </c>
+      <c r="G305" t="n">
+        <v>99.83</v>
+      </c>
+      <c r="H305" t="n">
+        <v>-0.001460814799066013</v>
+      </c>
+      <c r="I305" t="n">
+        <v>-0.0002401610164409613</v>
+      </c>
+      <c r="J305" t="n">
+        <v>-0.004968320335849549</v>
+      </c>
+      <c r="K305" t="n">
+        <v>-0.008355346255361747</v>
       </c>
     </row>
   </sheetData>
